--- a/dataset/우송대 정보.xlsx
+++ b/dataset/우송대 정보.xlsx
@@ -5,9 +5,9 @@
   <sheets>
     <sheet state="visible" name="부속건물" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="부속교육기관" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="복지시설" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="학과" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="신입생들 궁금한점" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="학과" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="질문입학휴학편입" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="복지시설" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="370">
   <si>
     <t xml:space="preserve"> 부속 기관</t>
   </si>
@@ -162,69 +162,6 @@
   </si>
   <si>
     <t>전화:042-629-6697</t>
-  </si>
-  <si>
-    <t>복지시설</t>
-  </si>
-  <si>
-    <t>우송예술회관</t>
-  </si>
-  <si>
-    <t>http://m.wsu.ac.kr/page/index.jsp?code=campus0801</t>
-  </si>
-  <si>
-    <t>서캠퍼스 W18 우송예술회관</t>
-  </si>
-  <si>
-    <t>전화:042-629-6363</t>
-  </si>
-  <si>
-    <t>우송수련원</t>
-  </si>
-  <si>
-    <t>https://www.wsu.ac.kr/page/index.jsp?code=campus0801c</t>
-  </si>
-  <si>
-    <t>충청남도 보령시 신흑동 1944번지</t>
-  </si>
-  <si>
-    <t>전화:042-630-9941</t>
-  </si>
-  <si>
-    <t>우송스포츠센터(서캠퍼스)</t>
-  </si>
-  <si>
-    <t>https://www.wsu.ac.kr/page/index.jsp?code=campus0801b</t>
-  </si>
-  <si>
-    <t>서캠퍼스 보건의료과학관(W5)</t>
-  </si>
-  <si>
-    <t>전화:042-630-9886</t>
-  </si>
-  <si>
-    <t>F스포렉스</t>
-  </si>
-  <si>
-    <t>https://www.wsu.ac.kr/page/index.jsp?code=campus0801d</t>
-  </si>
-  <si>
-    <t>대전광역시 동구 삼성1동 151-13 솔브릿지국제대학 내 지하</t>
-  </si>
-  <si>
-    <t>전화 : 042-630-8611</t>
-  </si>
-  <si>
-    <t>대전화병원</t>
-  </si>
-  <si>
-    <t>https://www.wsu.ac.kr/page/index.jsp?code=campus0801e</t>
-  </si>
-  <si>
-    <t>대전광역시 동구 신안동 293-1(구 대전동중학교)</t>
-  </si>
-  <si>
-    <t>전화 : 042-620-7575 / 응급실 전화 : 042-620-7500</t>
   </si>
   <si>
     <t>대학</t>
@@ -307,35 +244,35 @@
     <t>042-630-9249</t>
   </si>
   <si>
-    <t>호텔	       총지배인
-리조트	총지배인
-여행사	
+    <t>호텔               총지배인
+리조트        총지배인
+여행사        
    국내외 관광가이드
    국내외여행사
    문화유산해설사
-항공사	
+항공사        
    국내외 항공사 승무원
    국내외 항공사 지상근무요원
    국내외 항공사 사무직
-MICE	국제회의기획가
-외교/주한외국관광청	
+MICE        국제회의기획가
+외교/주한외국관광청        
    각 국가 대사관 등
    아시아/태평양
    중동/아프리카
    유럽
    아메리카
-F&amp;B	
+F&amp;B        
    소믈리에
    바리스타
    조주사
    외식업체 매니저
    호텔레스토랑 매니저
    외식산업 컨설턴트
-관광 관련 공사	한국관광공사
-지자체 협회	특별시/광역시/도 관광협회
-공항	      국제/국내 공항
-유람선	크루즈, 훼리
-정부/산하기관	  
+관광 관련 공사        한국관광공사
+지자체 협회        특별시/광역시/도 관광협회
+공항              국제/국내 공항
+유람선        크루즈, 훼리
+정부/산하기관          
    문화체육관광부
    한국관광공사
    한국문화관광연구원</t>
@@ -1281,30 +1218,27 @@
 테이핑자격증, 마사지자격증, AT 민간 자격증, CSCS자격증, 퍼스널트레이너자격증</t>
   </si>
   <si>
-    <t>궁금한점</t>
-  </si>
-  <si>
-    <t>대답</t>
-  </si>
-  <si>
-    <t>신입생들 궁금한점</t>
-  </si>
-  <si>
-    <t>학과에서 갈수있는직업</t>
-  </si>
-  <si>
-    <t>진로에 필요한 자격증</t>
-  </si>
-  <si>
-    <t>과 사무실 번호</t>
+    <t>의도(Intent)</t>
+  </si>
+  <si>
+    <t>질문(Query)</t>
+  </si>
+  <si>
+    <t>답변(Answer)</t>
+  </si>
+  <si>
+    <t>번호</t>
+  </si>
+  <si>
+    <t>학생증 잃어버리면 발급받을수 있는곳 알려줘</t>
+  </si>
+  <si>
+    <t>https://www.wsu.ac.kr/board/read.jsp?id=132445&amp;code=community0101</t>
   </si>
   <si>
     <t>학생증 잃어버리면 발급받을수 있는곳</t>
   </si>
   <si>
-    <t>https://www.wsu.ac.kr/board/read.jsp?id=132445&amp;code=community0101</t>
-  </si>
-  <si>
     <t>학교 건물 지도</t>
   </si>
   <si>
@@ -1351,13 +1285,212 @@
   </si>
   <si>
     <t>https://www.wsu.ac.kr/page/index.jsp?code=campus0102a</t>
+  </si>
+  <si>
+    <t>입학</t>
+  </si>
+  <si>
+    <t>입학원서 관련 질문 pdf파일</t>
+  </si>
+  <si>
+    <t>2023susi.pdf (wsu.ac.kr)</t>
+  </si>
+  <si>
+    <t>면접고사 온라인 자가문진표</t>
+  </si>
+  <si>
+    <t>https://ent.wsu.ac.kr/board/read.jsp?id=231882&amp;code=einfo0101</t>
+  </si>
+  <si>
+    <t>면접기간내 주변 주차장 및 볼거리</t>
+  </si>
+  <si>
+    <t>https://ent.wsu.ac.kr/board/read.jsp?id=231883&amp;code=einfo0101</t>
+  </si>
+  <si>
+    <t>면접을 위한 주변 주차장의 위치가 명시되어있다.</t>
+  </si>
+  <si>
+    <t>면접을 위한 셔틀버스 운행 표</t>
+  </si>
+  <si>
+    <t>https://ent.wsu.ac.kr/board/read.jsp?id=231657&amp;code=einfo0101</t>
+  </si>
+  <si>
+    <t>성적 산출 프로그램</t>
+  </si>
+  <si>
+    <t>https://ent2.wsu.ac.kr/pass/susi01.</t>
+  </si>
+  <si>
+    <t>입학 FAQ</t>
+  </si>
+  <si>
+    <t>https://ent.wsu.ac.kr/page/index.jsp?code=einfo0401</t>
+  </si>
+  <si>
+    <t>학과별 전화상담</t>
+  </si>
+  <si>
+    <t>솔브릿지경영학부</t>
+  </si>
+  <si>
+    <t>AI·빅데이터학과</t>
+  </si>
+  <si>
+    <t>042-629-6640</t>
+  </si>
+  <si>
+    <t>세무·부동산학전공</t>
+  </si>
+  <si>
+    <t>K-Pop 예술경영전공</t>
+  </si>
+  <si>
+    <t>042-630-9770</t>
+  </si>
+  <si>
+    <t>042-629-6730</t>
+  </si>
+  <si>
+    <t>042-629-6780</t>
+  </si>
+  <si>
+    <t>소프트웨어(SW)융합대학</t>
+  </si>
+  <si>
+    <t>미디어디자인·영상전공</t>
+  </si>
+  <si>
+    <t>042-630-9340, 9750</t>
+  </si>
+  <si>
+    <t>컴퓨터정보·보안전공</t>
+  </si>
+  <si>
+    <t>IT · 보안전공</t>
+  </si>
+  <si>
+    <t>JWKIM COLLEGE
+OF FUTURE STUDIES</t>
+  </si>
+  <si>
+    <t>휴먼디지털인터페이스학부 (HADI)</t>
+  </si>
+  <si>
+    <t>042-630-9374</t>
+  </si>
+  <si>
+    <t>한식·조리과학전공</t>
+  </si>
+  <si>
+    <t>042-629-6560</t>
+  </si>
+  <si>
+    <t>외식,조리경영전공</t>
+  </si>
+  <si>
+    <t>042-630-9250</t>
+  </si>
+  <si>
+    <t>식품영양학전공</t>
+  </si>
+  <si>
+    <t>042-630-9380</t>
+  </si>
+  <si>
+    <t>바이오식품과학전공</t>
+  </si>
+  <si>
+    <t>042-630-9820, 9827</t>
+  </si>
+  <si>
+    <t>언어치료·청각재활학과</t>
+  </si>
+  <si>
+    <t>042-629-6670, 6675</t>
+  </si>
+  <si>
+    <t>042-630-9840, 9861</t>
+  </si>
+  <si>
+    <t>편입학</t>
+  </si>
+  <si>
+    <t>(편입학은 23년도 공지가 뜬게없음 그래서 그냥 공지사항만 추가)</t>
+  </si>
+  <si>
+    <t>입학정보 &gt;&gt; 공지사항 : 우송대학교 입학종합서비스</t>
+  </si>
+  <si>
+    <t>복지시설</t>
+  </si>
+  <si>
+    <t>우송예술회관</t>
+  </si>
+  <si>
+    <t>http://m.wsu.ac.kr/page/index.jsp?code=campus0801</t>
+  </si>
+  <si>
+    <t>서캠퍼스 W18 우송예술회관</t>
+  </si>
+  <si>
+    <t>전화:042-629-6363</t>
+  </si>
+  <si>
+    <t>우송수련원</t>
+  </si>
+  <si>
+    <t>https://www.wsu.ac.kr/page/index.jsp?code=campus0801c</t>
+  </si>
+  <si>
+    <t>충청남도 보령시 신흑동 1944번지</t>
+  </si>
+  <si>
+    <t>전화:042-630-9941</t>
+  </si>
+  <si>
+    <t>우송스포츠센터(서캠퍼스)</t>
+  </si>
+  <si>
+    <t>https://www.wsu.ac.kr/page/index.jsp?code=campus0801b</t>
+  </si>
+  <si>
+    <t>서캠퍼스 보건의료과학관(W5)</t>
+  </si>
+  <si>
+    <t>전화:042-630-9886</t>
+  </si>
+  <si>
+    <t>F스포렉스</t>
+  </si>
+  <si>
+    <t>https://www.wsu.ac.kr/page/index.jsp?code=campus0801d</t>
+  </si>
+  <si>
+    <t>대전광역시 동구 삼성1동 151-13 솔브릿지국제대학 내 지하</t>
+  </si>
+  <si>
+    <t>전화 : 042-630-8611</t>
+  </si>
+  <si>
+    <t>대전화병원</t>
+  </si>
+  <si>
+    <t>https://www.wsu.ac.kr/page/index.jsp?code=campus0801e</t>
+  </si>
+  <si>
+    <t>대전광역시 동구 신안동 293-1(구 대전동중학교)</t>
+  </si>
+  <si>
+    <t>전화 : 042-620-7575 / 응급실 전화 : 042-620-7500</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="25">
+  <fonts count="30">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1445,19 +1578,15 @@
       <name val="&quot;맑은 고딕&quot;"/>
     </font>
     <font>
-      <u/>
-      <color rgb="FF0000FF"/>
+      <sz val="11.0"/>
+      <color rgb="FF111111"/>
+      <name val="&quot;PT Sans&quot;"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FF111111"/>
-      <name val="&quot;PT Sans&quot;"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -1469,15 +1598,48 @@
       <name val="Arial"/>
     </font>
     <font>
+      <u/>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="&quot;맑은 고딕&quot;"/>
     </font>
     <font>
-      <u/>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="&quot;맑은 고딕&quot;"/>
+    </font>
+    <font>
+      <sz val="15.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="15.0"/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Noto Sans KR&quot;"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1494,7 +1656,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="21">
     <border/>
     <border>
       <right style="thin">
@@ -1622,11 +1784,48 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <right style="thin">
+        <color rgb="FFD7D7D7"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FFD7D7D7"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="FFD7D7D7"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="medium">
+        <color rgb="FF363636"/>
+      </top>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FFD7D7D7"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD7D7D7"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="89">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1735,25 +1934,6 @@
     <xf borderId="9" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
@@ -1766,27 +1946,30 @@
     <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="2" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="12" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="12" fillId="2" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="13" fillId="2" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="12" fillId="2" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="2" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="12" fillId="2" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="12" fillId="2" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="2" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1801,23 +1984,78 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="18" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="19" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="19" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="20" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="15" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="9" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5565,242 +5803,6 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="28"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="M4" s="35"/>
-    </row>
-    <row r="5">
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-    </row>
-    <row r="6">
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="M7" s="35"/>
-    </row>
-    <row r="8">
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-    </row>
-    <row r="9">
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="M10" s="35"/>
-    </row>
-    <row r="11">
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-    </row>
-    <row r="12">
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="M13" s="35"/>
-    </row>
-    <row r="14">
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-    </row>
-    <row r="15">
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G10:K10"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="C4"/>
-    <hyperlink r:id="rId2" ref="C7"/>
-    <hyperlink r:id="rId3" ref="C10"/>
-    <hyperlink r:id="rId4" ref="C13"/>
-    <hyperlink r:id="rId5" ref="C16"/>
-  </hyperlinks>
-  <drawing r:id="rId6"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="2" width="17.63"/>
     <col customWidth="1" min="3" max="3" width="21.0"/>
@@ -5813,3991 +5815,3991 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="47"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="48" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="50"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="H4" s="46"/>
+      <c r="I4" s="44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="50"/>
+      <c r="B5" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C5" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D5" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="H5" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="I5" s="44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="50"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="D6" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="51" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="51" t="s">
+      <c r="H6" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="51" t="s">
+      <c r="I6" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="51" t="s">
+    </row>
+    <row r="7">
+      <c r="A7" s="50"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="D7" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="55" t="s">
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="52" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="56" t="s">
+      <c r="H7" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51" t="s">
+      <c r="I7" s="53" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="50"/>
+      <c r="B8" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="C8" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="52" t="s">
+      <c r="D8" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="H3" s="51" t="s">
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="I3" s="51" t="s">
+      <c r="D9" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="49" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="57"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51" t="s">
+      <c r="B10" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="C10" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="58" t="s">
+      <c r="D10" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="H4" s="53"/>
-      <c r="I4" s="51" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="57"/>
-      <c r="B5" s="56" t="s">
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="H10" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="58" t="s">
+      <c r="I10" s="44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="50"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="H5" s="51" t="s">
+      <c r="D11" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="I5" s="51" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="57"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="51" t="s">
+      <c r="E11" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="F11" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="58" t="s">
+      <c r="G11" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="H6" s="51" t="s">
+      <c r="H11" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="I6" s="59" t="s">
+      <c r="I11" s="44" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="57"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="51" t="s">
+    <row r="12">
+      <c r="A12" s="50"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D12" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="58" t="s">
+      <c r="E12" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="H7" s="51" t="s">
+      <c r="F12" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="I7" s="59" t="s">
+      <c r="G12" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="H12" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="I12" s="44" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="50"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" s="44"/>
+      <c r="G13" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="H13" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="I13" s="44" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="57"/>
-      <c r="B8" s="61" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8" s="51" t="s">
-        <v>106</v>
-      </c>
-      <c r="D8" s="51" t="s">
+    <row r="14">
+      <c r="A14" s="50"/>
+      <c r="B14" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="F14" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="G14" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="H14" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="I14" s="44" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="50"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" s="44"/>
+      <c r="G15" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="H15" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="I15" s="44" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="50"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="G16" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="H16" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="I16" s="44" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="50"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="F17" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="G17" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="H17" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="I17" s="44" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="54"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="D18" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="E18" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="F18" s="44"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="I18" s="44" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="B19" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="D19" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="E19" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="F19" s="46"/>
+      <c r="G19" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="H19" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="I19" s="44" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="44"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="E20" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="F20" s="46"/>
+      <c r="G20" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="H20" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="I20" s="44" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="44"/>
+      <c r="B21" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="C21" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="D21" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="E21" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="F21" s="46"/>
+      <c r="G21" s="45" t="s">
+        <v>153</v>
+      </c>
+      <c r="H21" s="46"/>
+      <c r="I21" s="44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="44"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="D22" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="E22" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="F22" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="G22" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="H22" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="I22" s="44" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="44"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D23" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="E23" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="F23" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="G23" s="57" t="s">
+        <v>164</v>
+      </c>
+      <c r="H23" s="58" t="s">
+        <v>165</v>
+      </c>
+      <c r="I23" s="44" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="44" t="s">
+        <v>166</v>
+      </c>
+      <c r="B24" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="C24" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="D24" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="H24" s="46"/>
+      <c r="I24" s="44" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="44"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="D25" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="H25" s="46"/>
+      <c r="I25" s="44" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="44"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="D26" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="H26" s="46"/>
+      <c r="I26" s="44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="44"/>
+      <c r="B27" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="C27" s="44" t="s">
+        <v>177</v>
+      </c>
+      <c r="D27" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="E27" s="44" t="s">
+        <v>179</v>
+      </c>
+      <c r="F27" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="G27" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="H27" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="I27" s="44" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="44"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="D28" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="E28" s="44" t="s">
+        <v>179</v>
+      </c>
+      <c r="F28" s="44" t="s">
+        <v>186</v>
+      </c>
+      <c r="G28" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="H28" s="44" t="s">
+        <v>188</v>
+      </c>
+      <c r="I28" s="44" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="44"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="D29" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="E29" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="F29" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="G29" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="H29" s="44" t="s">
+        <v>194</v>
+      </c>
+      <c r="I29" s="44" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="44"/>
+      <c r="B30" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="C30" s="44" t="s">
+        <v>196</v>
+      </c>
+      <c r="D30" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="E30" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="F30" s="49" t="s">
+        <v>199</v>
+      </c>
+      <c r="G30" s="45" t="s">
+        <v>200</v>
+      </c>
+      <c r="H30" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="I30" s="49" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="44"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="H31" s="44" t="s">
+        <v>204</v>
+      </c>
+      <c r="I31" s="54"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="44"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44" t="s">
+        <v>205</v>
+      </c>
+      <c r="D32" s="44" t="s">
+        <v>206</v>
+      </c>
+      <c r="E32" s="44" t="s">
+        <v>207</v>
+      </c>
+      <c r="F32" s="44" t="s">
+        <v>208</v>
+      </c>
+      <c r="G32" s="52" t="s">
+        <v>209</v>
+      </c>
+      <c r="H32" s="44" t="s">
+        <v>210</v>
+      </c>
+      <c r="I32" s="44" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="B33" s="46"/>
+      <c r="C33" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="D33" s="44" t="s">
+        <v>213</v>
+      </c>
+      <c r="E33" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="F33" s="46"/>
+      <c r="G33" s="45" t="s">
+        <v>215</v>
+      </c>
+      <c r="H33" s="44" t="s">
+        <v>216</v>
+      </c>
+      <c r="I33" s="44" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="46"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="44" t="s">
+        <v>218</v>
+      </c>
+      <c r="D34" s="44" t="s">
+        <v>219</v>
+      </c>
+      <c r="E34" s="44" t="s">
+        <v>220</v>
+      </c>
+      <c r="F34" s="46"/>
+      <c r="G34" s="45" t="s">
+        <v>221</v>
+      </c>
+      <c r="H34" s="44" t="s">
+        <v>222</v>
+      </c>
+      <c r="I34" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="60"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="62" t="s">
-        <v>108</v>
-      </c>
-      <c r="D9" s="51" t="s">
+    </row>
+    <row r="35">
+      <c r="A35" s="46"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="44" t="s">
+        <v>223</v>
+      </c>
+      <c r="D35" s="49" t="s">
+        <v>224</v>
+      </c>
+      <c r="E35" s="49" t="s">
+        <v>225</v>
+      </c>
+      <c r="F35" s="46"/>
+      <c r="G35" s="45" t="s">
+        <v>226</v>
+      </c>
+      <c r="H35" s="44" t="s">
+        <v>227</v>
+      </c>
+      <c r="I35" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="56" t="s">
-        <v>109</v>
-      </c>
-      <c r="B10" s="56" t="s">
-        <v>110</v>
-      </c>
-      <c r="C10" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="D10" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="52" t="s">
-        <v>113</v>
-      </c>
-      <c r="H10" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="I10" s="51" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="57"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="51" t="s">
-        <v>115</v>
-      </c>
-      <c r="D11" s="51" t="s">
-        <v>116</v>
-      </c>
-      <c r="E11" s="51" t="s">
-        <v>117</v>
-      </c>
-      <c r="F11" s="51" t="s">
-        <v>118</v>
-      </c>
-      <c r="G11" s="52" t="s">
-        <v>119</v>
-      </c>
-      <c r="H11" s="51" t="s">
-        <v>120</v>
-      </c>
-      <c r="I11" s="51" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="57"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="D12" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="E12" s="51" t="s">
-        <v>124</v>
-      </c>
-      <c r="F12" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="G12" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="H12" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="I12" s="51" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="57"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="D13" s="51" t="s">
-        <v>130</v>
-      </c>
-      <c r="E13" s="51" t="s">
-        <v>131</v>
-      </c>
-      <c r="F13" s="51"/>
-      <c r="G13" s="52" t="s">
-        <v>132</v>
-      </c>
-      <c r="H13" s="51" t="s">
-        <v>133</v>
-      </c>
-      <c r="I13" s="51" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="57"/>
-      <c r="B14" s="56" t="s">
-        <v>134</v>
-      </c>
-      <c r="C14" s="51" t="s">
-        <v>135</v>
-      </c>
-      <c r="D14" s="51" t="s">
-        <v>136</v>
-      </c>
-      <c r="E14" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="F14" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="G14" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="H14" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="I14" s="51" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="57"/>
-      <c r="B15" s="60"/>
-      <c r="C15" s="51" t="s">
-        <v>141</v>
-      </c>
-      <c r="D15" s="51" t="s">
-        <v>136</v>
-      </c>
-      <c r="E15" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="F15" s="51"/>
-      <c r="G15" s="52" t="s">
-        <v>142</v>
-      </c>
-      <c r="H15" s="51" t="s">
-        <v>143</v>
-      </c>
-      <c r="I15" s="51" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="57"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51" t="s">
-        <v>144</v>
-      </c>
-      <c r="D16" s="51" t="s">
-        <v>145</v>
-      </c>
-      <c r="E16" s="51" t="s">
-        <v>117</v>
-      </c>
-      <c r="F16" s="51" t="s">
-        <v>146</v>
-      </c>
-      <c r="G16" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="H16" s="51" t="s">
-        <v>148</v>
-      </c>
-      <c r="I16" s="51" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="57"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51" t="s">
-        <v>149</v>
-      </c>
-      <c r="D17" s="51" t="s">
-        <v>150</v>
-      </c>
-      <c r="E17" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="F17" s="51" t="s">
-        <v>152</v>
-      </c>
-      <c r="G17" s="52" t="s">
-        <v>153</v>
-      </c>
-      <c r="H17" s="51" t="s">
-        <v>154</v>
-      </c>
-      <c r="I17" s="51" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="60"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51" t="s">
-        <v>156</v>
-      </c>
-      <c r="D18" s="51" t="s">
-        <v>157</v>
-      </c>
-      <c r="E18" s="51" t="s">
-        <v>158</v>
-      </c>
-      <c r="F18" s="51"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="51" t="s">
-        <v>159</v>
-      </c>
-      <c r="I18" s="51" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="51" t="s">
-        <v>160</v>
-      </c>
-      <c r="B19" s="56" t="s">
-        <v>161</v>
-      </c>
-      <c r="C19" s="51" t="s">
-        <v>162</v>
-      </c>
-      <c r="D19" s="51" t="s">
-        <v>163</v>
-      </c>
-      <c r="E19" s="51" t="s">
-        <v>164</v>
-      </c>
-      <c r="F19" s="53"/>
-      <c r="G19" s="52" t="s">
-        <v>165</v>
-      </c>
-      <c r="H19" s="51" t="s">
-        <v>166</v>
-      </c>
-      <c r="I19" s="51" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="51"/>
-      <c r="B20" s="60"/>
-      <c r="C20" s="51" t="s">
-        <v>168</v>
-      </c>
-      <c r="D20" s="51" t="s">
-        <v>169</v>
-      </c>
-      <c r="E20" s="51" t="s">
-        <v>164</v>
-      </c>
-      <c r="F20" s="53"/>
-      <c r="G20" s="52" t="s">
-        <v>165</v>
-      </c>
-      <c r="H20" s="51" t="s">
-        <v>166</v>
-      </c>
-      <c r="I20" s="51" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="51"/>
-      <c r="B21" s="56" t="s">
-        <v>170</v>
-      </c>
-      <c r="C21" s="51" t="s">
-        <v>171</v>
-      </c>
-      <c r="D21" s="51" t="s">
-        <v>172</v>
-      </c>
-      <c r="E21" s="51" t="s">
-        <v>173</v>
-      </c>
-      <c r="F21" s="53"/>
-      <c r="G21" s="52" t="s">
-        <v>174</v>
-      </c>
-      <c r="H21" s="53"/>
-      <c r="I21" s="51" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="51"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="51" t="s">
-        <v>175</v>
-      </c>
-      <c r="D22" s="51" t="s">
-        <v>176</v>
-      </c>
-      <c r="E22" s="51" t="s">
-        <v>177</v>
-      </c>
-      <c r="F22" s="51" t="s">
-        <v>178</v>
-      </c>
-      <c r="G22" s="52" t="s">
-        <v>179</v>
-      </c>
-      <c r="H22" s="51" t="s">
-        <v>180</v>
-      </c>
-      <c r="I22" s="51" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="51"/>
-      <c r="B23" s="60"/>
-      <c r="C23" s="51" t="s">
-        <v>182</v>
-      </c>
-      <c r="D23" s="51" t="s">
-        <v>183</v>
-      </c>
-      <c r="E23" s="51" t="s">
-        <v>177</v>
-      </c>
-      <c r="F23" s="51" t="s">
-        <v>184</v>
-      </c>
-      <c r="G23" s="63" t="s">
-        <v>185</v>
-      </c>
-      <c r="H23" s="64" t="s">
-        <v>186</v>
-      </c>
-      <c r="I23" s="51" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="51" t="s">
-        <v>187</v>
-      </c>
-      <c r="B24" s="56" t="s">
-        <v>188</v>
-      </c>
-      <c r="C24" s="51" t="s">
-        <v>189</v>
-      </c>
-      <c r="D24" s="51" t="s">
-        <v>190</v>
-      </c>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="52" t="s">
-        <v>191</v>
-      </c>
-      <c r="H24" s="53"/>
-      <c r="I24" s="51" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="51"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="51" t="s">
-        <v>193</v>
-      </c>
-      <c r="D25" s="51" t="s">
-        <v>194</v>
-      </c>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="52" t="s">
-        <v>191</v>
-      </c>
-      <c r="H25" s="53"/>
-      <c r="I25" s="51" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="51"/>
-      <c r="B26" s="60"/>
-      <c r="C26" s="51" t="s">
-        <v>195</v>
-      </c>
-      <c r="D26" s="51" t="s">
-        <v>190</v>
-      </c>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="H26" s="53"/>
-      <c r="I26" s="51" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="51"/>
-      <c r="B27" s="56" t="s">
-        <v>197</v>
-      </c>
-      <c r="C27" s="51" t="s">
-        <v>198</v>
-      </c>
-      <c r="D27" s="51" t="s">
-        <v>199</v>
-      </c>
-      <c r="E27" s="51" t="s">
-        <v>200</v>
-      </c>
-      <c r="F27" s="51" t="s">
-        <v>201</v>
-      </c>
-      <c r="G27" s="52" t="s">
-        <v>202</v>
-      </c>
-      <c r="H27" s="51" t="s">
-        <v>203</v>
-      </c>
-      <c r="I27" s="51" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="51"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="51" t="s">
-        <v>205</v>
-      </c>
-      <c r="D28" s="51" t="s">
-        <v>206</v>
-      </c>
-      <c r="E28" s="51" t="s">
-        <v>200</v>
-      </c>
-      <c r="F28" s="51" t="s">
-        <v>207</v>
-      </c>
-      <c r="G28" s="52" t="s">
-        <v>208</v>
-      </c>
-      <c r="H28" s="51" t="s">
-        <v>209</v>
-      </c>
-      <c r="I28" s="51" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="51"/>
-      <c r="B29" s="60"/>
-      <c r="C29" s="51" t="s">
-        <v>210</v>
-      </c>
-      <c r="D29" s="51" t="s">
-        <v>211</v>
-      </c>
-      <c r="E29" s="51" t="s">
-        <v>212</v>
-      </c>
-      <c r="F29" s="51" t="s">
-        <v>213</v>
-      </c>
-      <c r="G29" s="52" t="s">
-        <v>214</v>
-      </c>
-      <c r="H29" s="51" t="s">
-        <v>215</v>
-      </c>
-      <c r="I29" s="51" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="51"/>
-      <c r="B30" s="56" t="s">
-        <v>216</v>
-      </c>
-      <c r="C30" s="51" t="s">
-        <v>217</v>
-      </c>
-      <c r="D30" s="56" t="s">
-        <v>218</v>
-      </c>
-      <c r="E30" s="56" t="s">
-        <v>219</v>
-      </c>
-      <c r="F30" s="56" t="s">
-        <v>220</v>
-      </c>
-      <c r="G30" s="52" t="s">
-        <v>221</v>
-      </c>
-      <c r="H30" s="51" t="s">
-        <v>222</v>
-      </c>
-      <c r="I30" s="56" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="51"/>
-      <c r="B31" s="60"/>
-      <c r="C31" s="51" t="s">
-        <v>223</v>
-      </c>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="52" t="s">
-        <v>224</v>
-      </c>
-      <c r="H31" s="51" t="s">
-        <v>225</v>
-      </c>
-      <c r="I31" s="60"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="51"/>
-      <c r="B32" s="51"/>
-      <c r="C32" s="51" t="s">
-        <v>226</v>
-      </c>
-      <c r="D32" s="51" t="s">
-        <v>227</v>
-      </c>
-      <c r="E32" s="51" t="s">
+    </row>
+    <row r="36">
+      <c r="A36" s="46"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="44" t="s">
         <v>228</v>
       </c>
-      <c r="F32" s="51" t="s">
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="45" t="s">
         <v>229</v>
       </c>
-      <c r="G32" s="58" t="s">
+      <c r="H36" s="44" t="s">
         <v>230</v>
       </c>
-      <c r="H32" s="51" t="s">
+      <c r="I36" s="54"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="46"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="44" t="s">
         <v>231</v>
       </c>
-      <c r="I32" s="51" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="51" t="s">
+      <c r="D37" s="44" t="s">
         <v>232</v>
       </c>
-      <c r="B33" s="53"/>
-      <c r="C33" s="51" t="s">
+      <c r="E37" s="44" t="s">
         <v>233</v>
       </c>
-      <c r="D33" s="51" t="s">
+      <c r="F37" s="46"/>
+      <c r="G37" s="45" t="s">
         <v>234</v>
       </c>
-      <c r="E33" s="51" t="s">
+      <c r="H37" s="44" t="s">
         <v>235</v>
       </c>
-      <c r="F33" s="53"/>
-      <c r="G33" s="52" t="s">
+      <c r="I37" s="44" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="46"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="44" t="s">
         <v>236</v>
       </c>
-      <c r="H33" s="51" t="s">
+      <c r="D38" s="44" t="s">
         <v>237</v>
       </c>
-      <c r="I33" s="51" t="s">
+      <c r="E38" s="44" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="53"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="51" t="s">
+      <c r="F38" s="44" t="s">
         <v>239</v>
       </c>
-      <c r="D34" s="51" t="s">
+      <c r="G38" s="45" t="s">
         <v>240</v>
       </c>
-      <c r="E34" s="51" t="s">
+      <c r="H38" s="44" t="s">
         <v>241</v>
       </c>
-      <c r="F34" s="53"/>
-      <c r="G34" s="52" t="s">
+      <c r="I38" s="44" t="s">
         <v>242</v>
       </c>
-      <c r="H34" s="51" t="s">
+    </row>
+    <row r="39">
+      <c r="A39" s="46"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="44" t="s">
         <v>243</v>
       </c>
-      <c r="I34" s="51" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="53"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="51" t="s">
+      <c r="D39" s="44" t="s">
         <v>244</v>
       </c>
-      <c r="D35" s="56" t="s">
+      <c r="E39" s="44" t="s">
         <v>245</v>
       </c>
-      <c r="E35" s="56" t="s">
+      <c r="F39" s="44" t="s">
         <v>246</v>
       </c>
-      <c r="F35" s="53"/>
-      <c r="G35" s="52" t="s">
+      <c r="G39" s="45" t="s">
         <v>247</v>
       </c>
-      <c r="H35" s="51" t="s">
+      <c r="H39" s="44" t="s">
         <v>248</v>
       </c>
-      <c r="I35" s="56" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="53"/>
-      <c r="B36" s="53"/>
-      <c r="C36" s="51" t="s">
+      <c r="I39" s="44" t="s">
         <v>249</v>
       </c>
-      <c r="D36" s="60"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="52" t="s">
+    </row>
+    <row r="40">
+      <c r="A40" s="46"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="44" t="s">
         <v>250</v>
       </c>
-      <c r="H36" s="51" t="s">
+      <c r="D40" s="44" t="s">
         <v>251</v>
       </c>
-      <c r="I36" s="60"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="53"/>
-      <c r="B37" s="53"/>
-      <c r="C37" s="51" t="s">
+      <c r="E40" s="44" t="s">
         <v>252</v>
       </c>
-      <c r="D37" s="51" t="s">
+      <c r="F40" s="44" t="s">
         <v>253</v>
       </c>
-      <c r="E37" s="51" t="s">
+      <c r="G40" s="45" t="s">
         <v>254</v>
       </c>
-      <c r="F37" s="53"/>
-      <c r="G37" s="52" t="s">
+      <c r="H40" s="44" t="s">
         <v>255</v>
       </c>
-      <c r="H37" s="51" t="s">
+      <c r="I40" s="44" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="46"/>
+      <c r="B41" s="49" t="s">
         <v>256</v>
       </c>
-      <c r="I37" s="51" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="53"/>
-      <c r="B38" s="53"/>
-      <c r="C38" s="51" t="s">
+      <c r="C41" s="44" t="s">
         <v>257</v>
       </c>
-      <c r="D38" s="51" t="s">
+      <c r="D41" s="49" t="s">
         <v>258</v>
       </c>
-      <c r="E38" s="51" t="s">
+      <c r="E41" s="49" t="s">
         <v>259</v>
       </c>
-      <c r="F38" s="51" t="s">
+      <c r="F41" s="59"/>
+      <c r="G41" s="60" t="s">
         <v>260</v>
       </c>
-      <c r="G38" s="52" t="s">
+      <c r="H41" s="49" t="s">
         <v>261</v>
       </c>
-      <c r="H38" s="51" t="s">
+      <c r="I41" s="49" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" ht="99.0" customHeight="1">
+      <c r="A42" s="46"/>
+      <c r="B42" s="54"/>
+      <c r="C42" s="44" t="s">
         <v>262</v>
       </c>
-      <c r="I38" s="51" t="s">
+      <c r="D42" s="54"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="54"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="54"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="46"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="44" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="53"/>
-      <c r="B39" s="53"/>
-      <c r="C39" s="51" t="s">
+      <c r="D43" s="44" t="s">
         <v>264</v>
       </c>
-      <c r="D39" s="51" t="s">
+      <c r="E43" s="44" t="s">
         <v>265</v>
       </c>
-      <c r="E39" s="51" t="s">
+      <c r="F43" s="44" t="s">
         <v>266</v>
       </c>
-      <c r="F39" s="51" t="s">
+      <c r="G43" s="45" t="s">
         <v>267</v>
       </c>
-      <c r="G39" s="52" t="s">
+      <c r="H43" s="44" t="s">
         <v>268</v>
       </c>
-      <c r="H39" s="51" t="s">
+      <c r="I43" s="44" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="46"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="44" t="s">
         <v>269</v>
       </c>
-      <c r="I39" s="51" t="s">
+      <c r="D44" s="44" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="53"/>
-      <c r="B40" s="53"/>
-      <c r="C40" s="51" t="s">
+      <c r="E44" s="44" t="s">
+        <v>233</v>
+      </c>
+      <c r="F44" s="44" t="s">
         <v>271</v>
       </c>
-      <c r="D40" s="51" t="s">
+      <c r="G44" s="45" t="s">
         <v>272</v>
       </c>
-      <c r="E40" s="51" t="s">
+      <c r="H44" s="44" t="s">
         <v>273</v>
       </c>
-      <c r="F40" s="51" t="s">
+      <c r="I44" s="44" t="s">
         <v>274</v>
       </c>
-      <c r="G40" s="52" t="s">
+    </row>
+    <row r="45">
+      <c r="A45" s="46"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="44" t="s">
         <v>275</v>
       </c>
-      <c r="H40" s="51" t="s">
+      <c r="D45" s="44" t="s">
         <v>276</v>
       </c>
-      <c r="I40" s="51" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="53"/>
-      <c r="B41" s="56" t="s">
+      <c r="E45" s="44" t="s">
         <v>277</v>
       </c>
-      <c r="C41" s="51" t="s">
+      <c r="F45" s="44" t="s">
         <v>278</v>
       </c>
-      <c r="D41" s="56" t="s">
+      <c r="G45" s="45" t="s">
         <v>279</v>
       </c>
-      <c r="E41" s="56" t="s">
+      <c r="H45" s="44" t="s">
         <v>280</v>
       </c>
-      <c r="F41" s="65"/>
-      <c r="G41" s="66" t="s">
-        <v>281</v>
-      </c>
-      <c r="H41" s="56" t="s">
-        <v>282</v>
-      </c>
-      <c r="I41" s="56" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="42" ht="99.0" customHeight="1">
-      <c r="A42" s="53"/>
-      <c r="B42" s="60"/>
-      <c r="C42" s="51" t="s">
-        <v>283</v>
-      </c>
-      <c r="D42" s="60"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="60"/>
-      <c r="G42" s="60"/>
-      <c r="H42" s="60"/>
-      <c r="I42" s="60"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="53"/>
-      <c r="B43" s="53"/>
-      <c r="C43" s="51" t="s">
-        <v>284</v>
-      </c>
-      <c r="D43" s="51" t="s">
-        <v>285</v>
-      </c>
-      <c r="E43" s="51" t="s">
-        <v>286</v>
-      </c>
-      <c r="F43" s="51" t="s">
-        <v>287</v>
-      </c>
-      <c r="G43" s="52" t="s">
-        <v>288</v>
-      </c>
-      <c r="H43" s="51" t="s">
-        <v>289</v>
-      </c>
-      <c r="I43" s="51" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="53"/>
-      <c r="B44" s="53"/>
-      <c r="C44" s="51" t="s">
-        <v>290</v>
-      </c>
-      <c r="D44" s="51" t="s">
-        <v>291</v>
-      </c>
-      <c r="E44" s="51" t="s">
-        <v>254</v>
-      </c>
-      <c r="F44" s="51" t="s">
-        <v>292</v>
-      </c>
-      <c r="G44" s="52" t="s">
-        <v>293</v>
-      </c>
-      <c r="H44" s="51" t="s">
-        <v>294</v>
-      </c>
-      <c r="I44" s="51" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="53"/>
-      <c r="B45" s="53"/>
-      <c r="C45" s="51" t="s">
-        <v>296</v>
-      </c>
-      <c r="D45" s="51" t="s">
-        <v>297</v>
-      </c>
-      <c r="E45" s="51" t="s">
-        <v>298</v>
-      </c>
-      <c r="F45" s="51" t="s">
-        <v>299</v>
-      </c>
-      <c r="G45" s="52" t="s">
-        <v>300</v>
-      </c>
-      <c r="H45" s="51" t="s">
-        <v>301</v>
-      </c>
-      <c r="I45" s="51" t="s">
-        <v>128</v>
+      <c r="I45" s="44" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="46">
-      <c r="G46" s="67"/>
+      <c r="G46" s="61"/>
     </row>
     <row r="47">
-      <c r="G47" s="67"/>
+      <c r="G47" s="61"/>
     </row>
     <row r="48">
-      <c r="G48" s="67"/>
+      <c r="G48" s="61"/>
     </row>
     <row r="49">
-      <c r="G49" s="67"/>
+      <c r="G49" s="61"/>
     </row>
     <row r="50">
-      <c r="G50" s="67"/>
+      <c r="G50" s="61"/>
     </row>
     <row r="51">
-      <c r="G51" s="67"/>
+      <c r="G51" s="61"/>
     </row>
     <row r="52">
-      <c r="G52" s="67"/>
+      <c r="G52" s="61"/>
     </row>
     <row r="53">
-      <c r="G53" s="67"/>
+      <c r="G53" s="61"/>
     </row>
     <row r="54">
-      <c r="G54" s="67"/>
+      <c r="G54" s="61"/>
     </row>
     <row r="55">
-      <c r="G55" s="67"/>
+      <c r="G55" s="61"/>
     </row>
     <row r="56">
-      <c r="G56" s="67"/>
+      <c r="G56" s="61"/>
     </row>
     <row r="57">
-      <c r="G57" s="67"/>
+      <c r="G57" s="61"/>
     </row>
     <row r="58">
-      <c r="G58" s="67"/>
+      <c r="G58" s="61"/>
     </row>
     <row r="59">
-      <c r="G59" s="67"/>
+      <c r="G59" s="61"/>
     </row>
     <row r="60">
-      <c r="G60" s="67"/>
+      <c r="G60" s="61"/>
     </row>
     <row r="61">
-      <c r="G61" s="67"/>
+      <c r="G61" s="61"/>
     </row>
     <row r="62">
-      <c r="G62" s="67"/>
+      <c r="G62" s="61"/>
     </row>
     <row r="63">
-      <c r="G63" s="67"/>
+      <c r="G63" s="61"/>
     </row>
     <row r="64">
-      <c r="G64" s="67"/>
+      <c r="G64" s="61"/>
     </row>
     <row r="65">
-      <c r="G65" s="67"/>
+      <c r="G65" s="61"/>
     </row>
     <row r="66">
-      <c r="G66" s="67"/>
+      <c r="G66" s="61"/>
     </row>
     <row r="67">
-      <c r="G67" s="67"/>
+      <c r="G67" s="61"/>
     </row>
     <row r="68">
-      <c r="G68" s="67"/>
+      <c r="G68" s="61"/>
     </row>
     <row r="69">
-      <c r="G69" s="67"/>
+      <c r="G69" s="61"/>
     </row>
     <row r="70">
-      <c r="G70" s="67"/>
+      <c r="G70" s="61"/>
     </row>
     <row r="71">
-      <c r="G71" s="67"/>
+      <c r="G71" s="61"/>
     </row>
     <row r="72">
-      <c r="G72" s="67"/>
+      <c r="G72" s="61"/>
     </row>
     <row r="73">
-      <c r="G73" s="67"/>
+      <c r="G73" s="61"/>
     </row>
     <row r="74">
-      <c r="G74" s="67"/>
+      <c r="G74" s="61"/>
     </row>
     <row r="75">
-      <c r="G75" s="67"/>
+      <c r="G75" s="61"/>
     </row>
     <row r="76">
-      <c r="G76" s="67"/>
+      <c r="G76" s="61"/>
     </row>
     <row r="77">
-      <c r="G77" s="67"/>
+      <c r="G77" s="61"/>
     </row>
     <row r="78">
-      <c r="G78" s="67"/>
+      <c r="G78" s="61"/>
     </row>
     <row r="79">
-      <c r="G79" s="67"/>
+      <c r="G79" s="61"/>
     </row>
     <row r="80">
-      <c r="G80" s="67"/>
+      <c r="G80" s="61"/>
     </row>
     <row r="81">
-      <c r="G81" s="67"/>
+      <c r="G81" s="61"/>
     </row>
     <row r="82">
-      <c r="G82" s="67"/>
+      <c r="G82" s="61"/>
     </row>
     <row r="83">
-      <c r="G83" s="67"/>
+      <c r="G83" s="61"/>
     </row>
     <row r="84">
-      <c r="G84" s="67"/>
+      <c r="G84" s="61"/>
     </row>
     <row r="85">
-      <c r="G85" s="67"/>
+      <c r="G85" s="61"/>
     </row>
     <row r="86">
-      <c r="G86" s="67"/>
+      <c r="G86" s="61"/>
     </row>
     <row r="87">
-      <c r="G87" s="67"/>
+      <c r="G87" s="61"/>
     </row>
     <row r="88">
-      <c r="G88" s="67"/>
+      <c r="G88" s="61"/>
     </row>
     <row r="89">
-      <c r="G89" s="67"/>
+      <c r="G89" s="61"/>
     </row>
     <row r="90">
-      <c r="G90" s="67"/>
+      <c r="G90" s="61"/>
     </row>
     <row r="91">
-      <c r="G91" s="67"/>
+      <c r="G91" s="61"/>
     </row>
     <row r="92">
-      <c r="G92" s="67"/>
+      <c r="G92" s="61"/>
     </row>
     <row r="93">
-      <c r="G93" s="67"/>
+      <c r="G93" s="61"/>
     </row>
     <row r="94">
-      <c r="G94" s="67"/>
+      <c r="G94" s="61"/>
     </row>
     <row r="95">
-      <c r="G95" s="67"/>
+      <c r="G95" s="61"/>
     </row>
     <row r="96">
-      <c r="G96" s="67"/>
+      <c r="G96" s="61"/>
     </row>
     <row r="97">
-      <c r="G97" s="67"/>
+      <c r="G97" s="61"/>
     </row>
     <row r="98">
-      <c r="G98" s="67"/>
+      <c r="G98" s="61"/>
     </row>
     <row r="99">
-      <c r="G99" s="67"/>
+      <c r="G99" s="61"/>
     </row>
     <row r="100">
-      <c r="G100" s="67"/>
+      <c r="G100" s="61"/>
     </row>
     <row r="101">
-      <c r="G101" s="67"/>
+      <c r="G101" s="61"/>
     </row>
     <row r="102">
-      <c r="G102" s="67"/>
+      <c r="G102" s="61"/>
     </row>
     <row r="103">
-      <c r="G103" s="67"/>
+      <c r="G103" s="61"/>
     </row>
     <row r="104">
-      <c r="G104" s="67"/>
+      <c r="G104" s="61"/>
     </row>
     <row r="105">
-      <c r="G105" s="67"/>
+      <c r="G105" s="61"/>
     </row>
     <row r="106">
-      <c r="G106" s="67"/>
+      <c r="G106" s="61"/>
     </row>
     <row r="107">
-      <c r="G107" s="67"/>
+      <c r="G107" s="61"/>
     </row>
     <row r="108">
-      <c r="G108" s="67"/>
+      <c r="G108" s="61"/>
     </row>
     <row r="109">
-      <c r="G109" s="67"/>
+      <c r="G109" s="61"/>
     </row>
     <row r="110">
-      <c r="G110" s="67"/>
+      <c r="G110" s="61"/>
     </row>
     <row r="111">
-      <c r="G111" s="67"/>
+      <c r="G111" s="61"/>
     </row>
     <row r="112">
-      <c r="G112" s="67"/>
+      <c r="G112" s="61"/>
     </row>
     <row r="113">
-      <c r="G113" s="67"/>
+      <c r="G113" s="61"/>
     </row>
     <row r="114">
-      <c r="G114" s="67"/>
+      <c r="G114" s="61"/>
     </row>
     <row r="115">
-      <c r="G115" s="67"/>
+      <c r="G115" s="61"/>
     </row>
     <row r="116">
-      <c r="G116" s="67"/>
+      <c r="G116" s="61"/>
     </row>
     <row r="117">
-      <c r="G117" s="67"/>
+      <c r="G117" s="61"/>
     </row>
     <row r="118">
-      <c r="G118" s="67"/>
+      <c r="G118" s="61"/>
     </row>
     <row r="119">
-      <c r="G119" s="67"/>
+      <c r="G119" s="61"/>
     </row>
     <row r="120">
-      <c r="G120" s="67"/>
+      <c r="G120" s="61"/>
     </row>
     <row r="121">
-      <c r="G121" s="67"/>
+      <c r="G121" s="61"/>
     </row>
     <row r="122">
-      <c r="G122" s="67"/>
+      <c r="G122" s="61"/>
     </row>
     <row r="123">
-      <c r="G123" s="67"/>
+      <c r="G123" s="61"/>
     </row>
     <row r="124">
-      <c r="G124" s="67"/>
+      <c r="G124" s="61"/>
     </row>
     <row r="125">
-      <c r="G125" s="67"/>
+      <c r="G125" s="61"/>
     </row>
     <row r="126">
-      <c r="G126" s="67"/>
+      <c r="G126" s="61"/>
     </row>
     <row r="127">
-      <c r="G127" s="67"/>
+      <c r="G127" s="61"/>
     </row>
     <row r="128">
-      <c r="G128" s="67"/>
+      <c r="G128" s="61"/>
     </row>
     <row r="129">
-      <c r="G129" s="67"/>
+      <c r="G129" s="61"/>
     </row>
     <row r="130">
-      <c r="G130" s="67"/>
+      <c r="G130" s="61"/>
     </row>
     <row r="131">
-      <c r="G131" s="67"/>
+      <c r="G131" s="61"/>
     </row>
     <row r="132">
-      <c r="G132" s="67"/>
+      <c r="G132" s="61"/>
     </row>
     <row r="133">
-      <c r="G133" s="67"/>
+      <c r="G133" s="61"/>
     </row>
     <row r="134">
-      <c r="G134" s="67"/>
+      <c r="G134" s="61"/>
     </row>
     <row r="135">
-      <c r="G135" s="67"/>
+      <c r="G135" s="61"/>
     </row>
     <row r="136">
-      <c r="G136" s="67"/>
+      <c r="G136" s="61"/>
     </row>
     <row r="137">
-      <c r="G137" s="67"/>
+      <c r="G137" s="61"/>
     </row>
     <row r="138">
-      <c r="G138" s="67"/>
+      <c r="G138" s="61"/>
     </row>
     <row r="139">
-      <c r="G139" s="67"/>
+      <c r="G139" s="61"/>
     </row>
     <row r="140">
-      <c r="G140" s="67"/>
+      <c r="G140" s="61"/>
     </row>
     <row r="141">
-      <c r="G141" s="67"/>
+      <c r="G141" s="61"/>
     </row>
     <row r="142">
-      <c r="G142" s="67"/>
+      <c r="G142" s="61"/>
     </row>
     <row r="143">
-      <c r="G143" s="67"/>
+      <c r="G143" s="61"/>
     </row>
     <row r="144">
-      <c r="G144" s="67"/>
+      <c r="G144" s="61"/>
     </row>
     <row r="145">
-      <c r="G145" s="67"/>
+      <c r="G145" s="61"/>
     </row>
     <row r="146">
-      <c r="G146" s="67"/>
+      <c r="G146" s="61"/>
     </row>
     <row r="147">
-      <c r="G147" s="67"/>
+      <c r="G147" s="61"/>
     </row>
     <row r="148">
-      <c r="G148" s="67"/>
+      <c r="G148" s="61"/>
     </row>
     <row r="149">
-      <c r="G149" s="67"/>
+      <c r="G149" s="61"/>
     </row>
     <row r="150">
-      <c r="G150" s="67"/>
+      <c r="G150" s="61"/>
     </row>
     <row r="151">
-      <c r="G151" s="67"/>
+      <c r="G151" s="61"/>
     </row>
     <row r="152">
-      <c r="G152" s="67"/>
+      <c r="G152" s="61"/>
     </row>
     <row r="153">
-      <c r="G153" s="67"/>
+      <c r="G153" s="61"/>
     </row>
     <row r="154">
-      <c r="G154" s="67"/>
+      <c r="G154" s="61"/>
     </row>
     <row r="155">
-      <c r="G155" s="67"/>
+      <c r="G155" s="61"/>
     </row>
     <row r="156">
-      <c r="G156" s="67"/>
+      <c r="G156" s="61"/>
     </row>
     <row r="157">
-      <c r="G157" s="67"/>
+      <c r="G157" s="61"/>
     </row>
     <row r="158">
-      <c r="G158" s="67"/>
+      <c r="G158" s="61"/>
     </row>
     <row r="159">
-      <c r="G159" s="67"/>
+      <c r="G159" s="61"/>
     </row>
     <row r="160">
-      <c r="G160" s="67"/>
+      <c r="G160" s="61"/>
     </row>
     <row r="161">
-      <c r="G161" s="67"/>
+      <c r="G161" s="61"/>
     </row>
     <row r="162">
-      <c r="G162" s="67"/>
+      <c r="G162" s="61"/>
     </row>
     <row r="163">
-      <c r="G163" s="67"/>
+      <c r="G163" s="61"/>
     </row>
     <row r="164">
-      <c r="G164" s="67"/>
+      <c r="G164" s="61"/>
     </row>
     <row r="165">
-      <c r="G165" s="67"/>
+      <c r="G165" s="61"/>
     </row>
     <row r="166">
-      <c r="G166" s="67"/>
+      <c r="G166" s="61"/>
     </row>
     <row r="167">
-      <c r="G167" s="67"/>
+      <c r="G167" s="61"/>
     </row>
     <row r="168">
-      <c r="G168" s="67"/>
+      <c r="G168" s="61"/>
     </row>
     <row r="169">
-      <c r="G169" s="67"/>
+      <c r="G169" s="61"/>
     </row>
     <row r="170">
-      <c r="G170" s="67"/>
+      <c r="G170" s="61"/>
     </row>
     <row r="171">
-      <c r="G171" s="67"/>
+      <c r="G171" s="61"/>
     </row>
     <row r="172">
-      <c r="G172" s="67"/>
+      <c r="G172" s="61"/>
     </row>
     <row r="173">
-      <c r="G173" s="67"/>
+      <c r="G173" s="61"/>
     </row>
     <row r="174">
-      <c r="G174" s="67"/>
+      <c r="G174" s="61"/>
     </row>
     <row r="175">
-      <c r="G175" s="67"/>
+      <c r="G175" s="61"/>
     </row>
     <row r="176">
-      <c r="G176" s="67"/>
+      <c r="G176" s="61"/>
     </row>
     <row r="177">
-      <c r="G177" s="67"/>
+      <c r="G177" s="61"/>
     </row>
     <row r="178">
-      <c r="G178" s="67"/>
+      <c r="G178" s="61"/>
     </row>
     <row r="179">
-      <c r="G179" s="67"/>
+      <c r="G179" s="61"/>
     </row>
     <row r="180">
-      <c r="G180" s="67"/>
+      <c r="G180" s="61"/>
     </row>
     <row r="181">
-      <c r="G181" s="67"/>
+      <c r="G181" s="61"/>
     </row>
     <row r="182">
-      <c r="G182" s="67"/>
+      <c r="G182" s="61"/>
     </row>
     <row r="183">
-      <c r="G183" s="67"/>
+      <c r="G183" s="61"/>
     </row>
     <row r="184">
-      <c r="G184" s="67"/>
+      <c r="G184" s="61"/>
     </row>
     <row r="185">
-      <c r="G185" s="67"/>
+      <c r="G185" s="61"/>
     </row>
     <row r="186">
-      <c r="G186" s="67"/>
+      <c r="G186" s="61"/>
     </row>
     <row r="187">
-      <c r="G187" s="67"/>
+      <c r="G187" s="61"/>
     </row>
     <row r="188">
-      <c r="G188" s="67"/>
+      <c r="G188" s="61"/>
     </row>
     <row r="189">
-      <c r="G189" s="67"/>
+      <c r="G189" s="61"/>
     </row>
     <row r="190">
-      <c r="G190" s="67"/>
+      <c r="G190" s="61"/>
     </row>
     <row r="191">
-      <c r="G191" s="67"/>
+      <c r="G191" s="61"/>
     </row>
     <row r="192">
-      <c r="G192" s="67"/>
+      <c r="G192" s="61"/>
     </row>
     <row r="193">
-      <c r="G193" s="67"/>
+      <c r="G193" s="61"/>
     </row>
     <row r="194">
-      <c r="G194" s="67"/>
+      <c r="G194" s="61"/>
     </row>
     <row r="195">
-      <c r="G195" s="67"/>
+      <c r="G195" s="61"/>
     </row>
     <row r="196">
-      <c r="G196" s="67"/>
+      <c r="G196" s="61"/>
     </row>
     <row r="197">
-      <c r="G197" s="67"/>
+      <c r="G197" s="61"/>
     </row>
     <row r="198">
-      <c r="G198" s="67"/>
+      <c r="G198" s="61"/>
     </row>
     <row r="199">
-      <c r="G199" s="67"/>
+      <c r="G199" s="61"/>
     </row>
     <row r="200">
-      <c r="G200" s="67"/>
+      <c r="G200" s="61"/>
     </row>
     <row r="201">
-      <c r="G201" s="67"/>
+      <c r="G201" s="61"/>
     </row>
     <row r="202">
-      <c r="G202" s="67"/>
+      <c r="G202" s="61"/>
     </row>
     <row r="203">
-      <c r="G203" s="67"/>
+      <c r="G203" s="61"/>
     </row>
     <row r="204">
-      <c r="G204" s="67"/>
+      <c r="G204" s="61"/>
     </row>
     <row r="205">
-      <c r="G205" s="67"/>
+      <c r="G205" s="61"/>
     </row>
     <row r="206">
-      <c r="G206" s="67"/>
+      <c r="G206" s="61"/>
     </row>
     <row r="207">
-      <c r="G207" s="67"/>
+      <c r="G207" s="61"/>
     </row>
     <row r="208">
-      <c r="G208" s="67"/>
+      <c r="G208" s="61"/>
     </row>
     <row r="209">
-      <c r="G209" s="67"/>
+      <c r="G209" s="61"/>
     </row>
     <row r="210">
-      <c r="G210" s="67"/>
+      <c r="G210" s="61"/>
     </row>
     <row r="211">
-      <c r="G211" s="67"/>
+      <c r="G211" s="61"/>
     </row>
     <row r="212">
-      <c r="G212" s="67"/>
+      <c r="G212" s="61"/>
     </row>
     <row r="213">
-      <c r="G213" s="67"/>
+      <c r="G213" s="61"/>
     </row>
     <row r="214">
-      <c r="G214" s="67"/>
+      <c r="G214" s="61"/>
     </row>
     <row r="215">
-      <c r="G215" s="67"/>
+      <c r="G215" s="61"/>
     </row>
     <row r="216">
-      <c r="G216" s="67"/>
+      <c r="G216" s="61"/>
     </row>
     <row r="217">
-      <c r="G217" s="67"/>
+      <c r="G217" s="61"/>
     </row>
     <row r="218">
-      <c r="G218" s="67"/>
+      <c r="G218" s="61"/>
     </row>
     <row r="219">
-      <c r="G219" s="67"/>
+      <c r="G219" s="61"/>
     </row>
     <row r="220">
-      <c r="G220" s="67"/>
+      <c r="G220" s="61"/>
     </row>
     <row r="221">
-      <c r="G221" s="67"/>
+      <c r="G221" s="61"/>
     </row>
     <row r="222">
-      <c r="G222" s="67"/>
+      <c r="G222" s="61"/>
     </row>
     <row r="223">
-      <c r="G223" s="67"/>
+      <c r="G223" s="61"/>
     </row>
     <row r="224">
-      <c r="G224" s="67"/>
+      <c r="G224" s="61"/>
     </row>
     <row r="225">
-      <c r="G225" s="67"/>
+      <c r="G225" s="61"/>
     </row>
     <row r="226">
-      <c r="G226" s="67"/>
+      <c r="G226" s="61"/>
     </row>
     <row r="227">
-      <c r="G227" s="67"/>
+      <c r="G227" s="61"/>
     </row>
     <row r="228">
-      <c r="G228" s="67"/>
+      <c r="G228" s="61"/>
     </row>
     <row r="229">
-      <c r="G229" s="67"/>
+      <c r="G229" s="61"/>
     </row>
     <row r="230">
-      <c r="G230" s="67"/>
+      <c r="G230" s="61"/>
     </row>
     <row r="231">
-      <c r="G231" s="67"/>
+      <c r="G231" s="61"/>
     </row>
     <row r="232">
-      <c r="G232" s="67"/>
+      <c r="G232" s="61"/>
     </row>
     <row r="233">
-      <c r="G233" s="67"/>
+      <c r="G233" s="61"/>
     </row>
     <row r="234">
-      <c r="G234" s="67"/>
+      <c r="G234" s="61"/>
     </row>
     <row r="235">
-      <c r="G235" s="67"/>
+      <c r="G235" s="61"/>
     </row>
     <row r="236">
-      <c r="G236" s="67"/>
+      <c r="G236" s="61"/>
     </row>
     <row r="237">
-      <c r="G237" s="67"/>
+      <c r="G237" s="61"/>
     </row>
     <row r="238">
-      <c r="G238" s="67"/>
+      <c r="G238" s="61"/>
     </row>
     <row r="239">
-      <c r="G239" s="67"/>
+      <c r="G239" s="61"/>
     </row>
     <row r="240">
-      <c r="G240" s="67"/>
+      <c r="G240" s="61"/>
     </row>
     <row r="241">
-      <c r="G241" s="67"/>
+      <c r="G241" s="61"/>
     </row>
     <row r="242">
-      <c r="G242" s="67"/>
+      <c r="G242" s="61"/>
     </row>
     <row r="243">
-      <c r="G243" s="67"/>
+      <c r="G243" s="61"/>
     </row>
     <row r="244">
-      <c r="G244" s="67"/>
+      <c r="G244" s="61"/>
     </row>
     <row r="245">
-      <c r="G245" s="67"/>
+      <c r="G245" s="61"/>
     </row>
     <row r="246">
-      <c r="G246" s="67"/>
+      <c r="G246" s="61"/>
     </row>
     <row r="247">
-      <c r="G247" s="67"/>
+      <c r="G247" s="61"/>
     </row>
     <row r="248">
-      <c r="G248" s="67"/>
+      <c r="G248" s="61"/>
     </row>
     <row r="249">
-      <c r="G249" s="67"/>
+      <c r="G249" s="61"/>
     </row>
     <row r="250">
-      <c r="G250" s="67"/>
+      <c r="G250" s="61"/>
     </row>
     <row r="251">
-      <c r="G251" s="67"/>
+      <c r="G251" s="61"/>
     </row>
     <row r="252">
-      <c r="G252" s="67"/>
+      <c r="G252" s="61"/>
     </row>
     <row r="253">
-      <c r="G253" s="67"/>
+      <c r="G253" s="61"/>
     </row>
     <row r="254">
-      <c r="G254" s="67"/>
+      <c r="G254" s="61"/>
     </row>
     <row r="255">
-      <c r="G255" s="67"/>
+      <c r="G255" s="61"/>
     </row>
     <row r="256">
-      <c r="G256" s="67"/>
+      <c r="G256" s="61"/>
     </row>
     <row r="257">
-      <c r="G257" s="67"/>
+      <c r="G257" s="61"/>
     </row>
     <row r="258">
-      <c r="G258" s="67"/>
+      <c r="G258" s="61"/>
     </row>
     <row r="259">
-      <c r="G259" s="67"/>
+      <c r="G259" s="61"/>
     </row>
     <row r="260">
-      <c r="G260" s="67"/>
+      <c r="G260" s="61"/>
     </row>
     <row r="261">
-      <c r="G261" s="67"/>
+      <c r="G261" s="61"/>
     </row>
     <row r="262">
-      <c r="G262" s="67"/>
+      <c r="G262" s="61"/>
     </row>
     <row r="263">
-      <c r="G263" s="67"/>
+      <c r="G263" s="61"/>
     </row>
     <row r="264">
-      <c r="G264" s="67"/>
+      <c r="G264" s="61"/>
     </row>
     <row r="265">
-      <c r="G265" s="67"/>
+      <c r="G265" s="61"/>
     </row>
     <row r="266">
-      <c r="G266" s="67"/>
+      <c r="G266" s="61"/>
     </row>
     <row r="267">
-      <c r="G267" s="67"/>
+      <c r="G267" s="61"/>
     </row>
     <row r="268">
-      <c r="G268" s="67"/>
+      <c r="G268" s="61"/>
     </row>
     <row r="269">
-      <c r="G269" s="67"/>
+      <c r="G269" s="61"/>
     </row>
     <row r="270">
-      <c r="G270" s="67"/>
+      <c r="G270" s="61"/>
     </row>
     <row r="271">
-      <c r="G271" s="67"/>
+      <c r="G271" s="61"/>
     </row>
     <row r="272">
-      <c r="G272" s="67"/>
+      <c r="G272" s="61"/>
     </row>
     <row r="273">
-      <c r="G273" s="67"/>
+      <c r="G273" s="61"/>
     </row>
     <row r="274">
-      <c r="G274" s="67"/>
+      <c r="G274" s="61"/>
     </row>
     <row r="275">
-      <c r="G275" s="67"/>
+      <c r="G275" s="61"/>
     </row>
     <row r="276">
-      <c r="G276" s="67"/>
+      <c r="G276" s="61"/>
     </row>
     <row r="277">
-      <c r="G277" s="67"/>
+      <c r="G277" s="61"/>
     </row>
     <row r="278">
-      <c r="G278" s="67"/>
+      <c r="G278" s="61"/>
     </row>
     <row r="279">
-      <c r="G279" s="67"/>
+      <c r="G279" s="61"/>
     </row>
     <row r="280">
-      <c r="G280" s="67"/>
+      <c r="G280" s="61"/>
     </row>
     <row r="281">
-      <c r="G281" s="67"/>
+      <c r="G281" s="61"/>
     </row>
     <row r="282">
-      <c r="G282" s="67"/>
+      <c r="G282" s="61"/>
     </row>
     <row r="283">
-      <c r="G283" s="67"/>
+      <c r="G283" s="61"/>
     </row>
     <row r="284">
-      <c r="G284" s="67"/>
+      <c r="G284" s="61"/>
     </row>
     <row r="285">
-      <c r="G285" s="67"/>
+      <c r="G285" s="61"/>
     </row>
     <row r="286">
-      <c r="G286" s="67"/>
+      <c r="G286" s="61"/>
     </row>
     <row r="287">
-      <c r="G287" s="67"/>
+      <c r="G287" s="61"/>
     </row>
     <row r="288">
-      <c r="G288" s="67"/>
+      <c r="G288" s="61"/>
     </row>
     <row r="289">
-      <c r="G289" s="67"/>
+      <c r="G289" s="61"/>
     </row>
     <row r="290">
-      <c r="G290" s="67"/>
+      <c r="G290" s="61"/>
     </row>
     <row r="291">
-      <c r="G291" s="67"/>
+      <c r="G291" s="61"/>
     </row>
     <row r="292">
-      <c r="G292" s="67"/>
+      <c r="G292" s="61"/>
     </row>
     <row r="293">
-      <c r="G293" s="67"/>
+      <c r="G293" s="61"/>
     </row>
     <row r="294">
-      <c r="G294" s="67"/>
+      <c r="G294" s="61"/>
     </row>
     <row r="295">
-      <c r="G295" s="67"/>
+      <c r="G295" s="61"/>
     </row>
     <row r="296">
-      <c r="G296" s="67"/>
+      <c r="G296" s="61"/>
     </row>
     <row r="297">
-      <c r="G297" s="67"/>
+      <c r="G297" s="61"/>
     </row>
     <row r="298">
-      <c r="G298" s="67"/>
+      <c r="G298" s="61"/>
     </row>
     <row r="299">
-      <c r="G299" s="67"/>
+      <c r="G299" s="61"/>
     </row>
     <row r="300">
-      <c r="G300" s="67"/>
+      <c r="G300" s="61"/>
     </row>
     <row r="301">
-      <c r="G301" s="67"/>
+      <c r="G301" s="61"/>
     </row>
     <row r="302">
-      <c r="G302" s="67"/>
+      <c r="G302" s="61"/>
     </row>
     <row r="303">
-      <c r="G303" s="67"/>
+      <c r="G303" s="61"/>
     </row>
     <row r="304">
-      <c r="G304" s="67"/>
+      <c r="G304" s="61"/>
     </row>
     <row r="305">
-      <c r="G305" s="67"/>
+      <c r="G305" s="61"/>
     </row>
     <row r="306">
-      <c r="G306" s="67"/>
+      <c r="G306" s="61"/>
     </row>
     <row r="307">
-      <c r="G307" s="67"/>
+      <c r="G307" s="61"/>
     </row>
     <row r="308">
-      <c r="G308" s="67"/>
+      <c r="G308" s="61"/>
     </row>
     <row r="309">
-      <c r="G309" s="67"/>
+      <c r="G309" s="61"/>
     </row>
     <row r="310">
-      <c r="G310" s="67"/>
+      <c r="G310" s="61"/>
     </row>
     <row r="311">
-      <c r="G311" s="67"/>
+      <c r="G311" s="61"/>
     </row>
     <row r="312">
-      <c r="G312" s="67"/>
+      <c r="G312" s="61"/>
     </row>
     <row r="313">
-      <c r="G313" s="67"/>
+      <c r="G313" s="61"/>
     </row>
     <row r="314">
-      <c r="G314" s="67"/>
+      <c r="G314" s="61"/>
     </row>
     <row r="315">
-      <c r="G315" s="67"/>
+      <c r="G315" s="61"/>
     </row>
     <row r="316">
-      <c r="G316" s="67"/>
+      <c r="G316" s="61"/>
     </row>
     <row r="317">
-      <c r="G317" s="67"/>
+      <c r="G317" s="61"/>
     </row>
     <row r="318">
-      <c r="G318" s="67"/>
+      <c r="G318" s="61"/>
     </row>
     <row r="319">
-      <c r="G319" s="67"/>
+      <c r="G319" s="61"/>
     </row>
     <row r="320">
-      <c r="G320" s="67"/>
+      <c r="G320" s="61"/>
     </row>
     <row r="321">
-      <c r="G321" s="67"/>
+      <c r="G321" s="61"/>
     </row>
     <row r="322">
-      <c r="G322" s="67"/>
+      <c r="G322" s="61"/>
     </row>
     <row r="323">
-      <c r="G323" s="67"/>
+      <c r="G323" s="61"/>
     </row>
     <row r="324">
-      <c r="G324" s="67"/>
+      <c r="G324" s="61"/>
     </row>
     <row r="325">
-      <c r="G325" s="67"/>
+      <c r="G325" s="61"/>
     </row>
     <row r="326">
-      <c r="G326" s="67"/>
+      <c r="G326" s="61"/>
     </row>
     <row r="327">
-      <c r="G327" s="67"/>
+      <c r="G327" s="61"/>
     </row>
     <row r="328">
-      <c r="G328" s="67"/>
+      <c r="G328" s="61"/>
     </row>
     <row r="329">
-      <c r="G329" s="67"/>
+      <c r="G329" s="61"/>
     </row>
     <row r="330">
-      <c r="G330" s="67"/>
+      <c r="G330" s="61"/>
     </row>
     <row r="331">
-      <c r="G331" s="67"/>
+      <c r="G331" s="61"/>
     </row>
     <row r="332">
-      <c r="G332" s="67"/>
+      <c r="G332" s="61"/>
     </row>
     <row r="333">
-      <c r="G333" s="67"/>
+      <c r="G333" s="61"/>
     </row>
     <row r="334">
-      <c r="G334" s="67"/>
+      <c r="G334" s="61"/>
     </row>
     <row r="335">
-      <c r="G335" s="67"/>
+      <c r="G335" s="61"/>
     </row>
     <row r="336">
-      <c r="G336" s="67"/>
+      <c r="G336" s="61"/>
     </row>
     <row r="337">
-      <c r="G337" s="67"/>
+      <c r="G337" s="61"/>
     </row>
     <row r="338">
-      <c r="G338" s="67"/>
+      <c r="G338" s="61"/>
     </row>
     <row r="339">
-      <c r="G339" s="67"/>
+      <c r="G339" s="61"/>
     </row>
     <row r="340">
-      <c r="G340" s="67"/>
+      <c r="G340" s="61"/>
     </row>
     <row r="341">
-      <c r="G341" s="67"/>
+      <c r="G341" s="61"/>
     </row>
     <row r="342">
-      <c r="G342" s="67"/>
+      <c r="G342" s="61"/>
     </row>
     <row r="343">
-      <c r="G343" s="67"/>
+      <c r="G343" s="61"/>
     </row>
     <row r="344">
-      <c r="G344" s="67"/>
+      <c r="G344" s="61"/>
     </row>
     <row r="345">
-      <c r="G345" s="67"/>
+      <c r="G345" s="61"/>
     </row>
     <row r="346">
-      <c r="G346" s="67"/>
+      <c r="G346" s="61"/>
     </row>
     <row r="347">
-      <c r="G347" s="67"/>
+      <c r="G347" s="61"/>
     </row>
     <row r="348">
-      <c r="G348" s="67"/>
+      <c r="G348" s="61"/>
     </row>
     <row r="349">
-      <c r="G349" s="67"/>
+      <c r="G349" s="61"/>
     </row>
     <row r="350">
-      <c r="G350" s="67"/>
+      <c r="G350" s="61"/>
     </row>
     <row r="351">
-      <c r="G351" s="67"/>
+      <c r="G351" s="61"/>
     </row>
     <row r="352">
-      <c r="G352" s="67"/>
+      <c r="G352" s="61"/>
     </row>
     <row r="353">
-      <c r="G353" s="67"/>
+      <c r="G353" s="61"/>
     </row>
     <row r="354">
-      <c r="G354" s="67"/>
+      <c r="G354" s="61"/>
     </row>
     <row r="355">
-      <c r="G355" s="67"/>
+      <c r="G355" s="61"/>
     </row>
     <row r="356">
-      <c r="G356" s="67"/>
+      <c r="G356" s="61"/>
     </row>
     <row r="357">
-      <c r="G357" s="67"/>
+      <c r="G357" s="61"/>
     </row>
     <row r="358">
-      <c r="G358" s="67"/>
+      <c r="G358" s="61"/>
     </row>
     <row r="359">
-      <c r="G359" s="67"/>
+      <c r="G359" s="61"/>
     </row>
     <row r="360">
-      <c r="G360" s="67"/>
+      <c r="G360" s="61"/>
     </row>
     <row r="361">
-      <c r="G361" s="67"/>
+      <c r="G361" s="61"/>
     </row>
     <row r="362">
-      <c r="G362" s="67"/>
+      <c r="G362" s="61"/>
     </row>
     <row r="363">
-      <c r="G363" s="67"/>
+      <c r="G363" s="61"/>
     </row>
     <row r="364">
-      <c r="G364" s="67"/>
+      <c r="G364" s="61"/>
     </row>
     <row r="365">
-      <c r="G365" s="67"/>
+      <c r="G365" s="61"/>
     </row>
     <row r="366">
-      <c r="G366" s="67"/>
+      <c r="G366" s="61"/>
     </row>
     <row r="367">
-      <c r="G367" s="67"/>
+      <c r="G367" s="61"/>
     </row>
     <row r="368">
-      <c r="G368" s="67"/>
+      <c r="G368" s="61"/>
     </row>
     <row r="369">
-      <c r="G369" s="67"/>
+      <c r="G369" s="61"/>
     </row>
     <row r="370">
-      <c r="G370" s="67"/>
+      <c r="G370" s="61"/>
     </row>
     <row r="371">
-      <c r="G371" s="67"/>
+      <c r="G371" s="61"/>
     </row>
     <row r="372">
-      <c r="G372" s="67"/>
+      <c r="G372" s="61"/>
     </row>
     <row r="373">
-      <c r="G373" s="67"/>
+      <c r="G373" s="61"/>
     </row>
     <row r="374">
-      <c r="G374" s="67"/>
+      <c r="G374" s="61"/>
     </row>
     <row r="375">
-      <c r="G375" s="67"/>
+      <c r="G375" s="61"/>
     </row>
     <row r="376">
-      <c r="G376" s="67"/>
+      <c r="G376" s="61"/>
     </row>
     <row r="377">
-      <c r="G377" s="67"/>
+      <c r="G377" s="61"/>
     </row>
     <row r="378">
-      <c r="G378" s="67"/>
+      <c r="G378" s="61"/>
     </row>
     <row r="379">
-      <c r="G379" s="67"/>
+      <c r="G379" s="61"/>
     </row>
     <row r="380">
-      <c r="G380" s="67"/>
+      <c r="G380" s="61"/>
     </row>
     <row r="381">
-      <c r="G381" s="67"/>
+      <c r="G381" s="61"/>
     </row>
     <row r="382">
-      <c r="G382" s="67"/>
+      <c r="G382" s="61"/>
     </row>
     <row r="383">
-      <c r="G383" s="67"/>
+      <c r="G383" s="61"/>
     </row>
     <row r="384">
-      <c r="G384" s="67"/>
+      <c r="G384" s="61"/>
     </row>
     <row r="385">
-      <c r="G385" s="67"/>
+      <c r="G385" s="61"/>
     </row>
     <row r="386">
-      <c r="G386" s="67"/>
+      <c r="G386" s="61"/>
     </row>
     <row r="387">
-      <c r="G387" s="67"/>
+      <c r="G387" s="61"/>
     </row>
     <row r="388">
-      <c r="G388" s="67"/>
+      <c r="G388" s="61"/>
     </row>
     <row r="389">
-      <c r="G389" s="67"/>
+      <c r="G389" s="61"/>
     </row>
     <row r="390">
-      <c r="G390" s="67"/>
+      <c r="G390" s="61"/>
     </row>
     <row r="391">
-      <c r="G391" s="67"/>
+      <c r="G391" s="61"/>
     </row>
     <row r="392">
-      <c r="G392" s="67"/>
+      <c r="G392" s="61"/>
     </row>
     <row r="393">
-      <c r="G393" s="67"/>
+      <c r="G393" s="61"/>
     </row>
     <row r="394">
-      <c r="G394" s="67"/>
+      <c r="G394" s="61"/>
     </row>
     <row r="395">
-      <c r="G395" s="67"/>
+      <c r="G395" s="61"/>
     </row>
     <row r="396">
-      <c r="G396" s="67"/>
+      <c r="G396" s="61"/>
     </row>
     <row r="397">
-      <c r="G397" s="67"/>
+      <c r="G397" s="61"/>
     </row>
     <row r="398">
-      <c r="G398" s="67"/>
+      <c r="G398" s="61"/>
     </row>
     <row r="399">
-      <c r="G399" s="67"/>
+      <c r="G399" s="61"/>
     </row>
     <row r="400">
-      <c r="G400" s="67"/>
+      <c r="G400" s="61"/>
     </row>
     <row r="401">
-      <c r="G401" s="67"/>
+      <c r="G401" s="61"/>
     </row>
     <row r="402">
-      <c r="G402" s="67"/>
+      <c r="G402" s="61"/>
     </row>
     <row r="403">
-      <c r="G403" s="67"/>
+      <c r="G403" s="61"/>
     </row>
     <row r="404">
-      <c r="G404" s="67"/>
+      <c r="G404" s="61"/>
     </row>
     <row r="405">
-      <c r="G405" s="67"/>
+      <c r="G405" s="61"/>
     </row>
     <row r="406">
-      <c r="G406" s="67"/>
+      <c r="G406" s="61"/>
     </row>
     <row r="407">
-      <c r="G407" s="67"/>
+      <c r="G407" s="61"/>
     </row>
     <row r="408">
-      <c r="G408" s="67"/>
+      <c r="G408" s="61"/>
     </row>
     <row r="409">
-      <c r="G409" s="67"/>
+      <c r="G409" s="61"/>
     </row>
     <row r="410">
-      <c r="G410" s="67"/>
+      <c r="G410" s="61"/>
     </row>
     <row r="411">
-      <c r="G411" s="67"/>
+      <c r="G411" s="61"/>
     </row>
     <row r="412">
-      <c r="G412" s="67"/>
+      <c r="G412" s="61"/>
     </row>
     <row r="413">
-      <c r="G413" s="67"/>
+      <c r="G413" s="61"/>
     </row>
     <row r="414">
-      <c r="G414" s="67"/>
+      <c r="G414" s="61"/>
     </row>
     <row r="415">
-      <c r="G415" s="67"/>
+      <c r="G415" s="61"/>
     </row>
     <row r="416">
-      <c r="G416" s="67"/>
+      <c r="G416" s="61"/>
     </row>
     <row r="417">
-      <c r="G417" s="67"/>
+      <c r="G417" s="61"/>
     </row>
     <row r="418">
-      <c r="G418" s="67"/>
+      <c r="G418" s="61"/>
     </row>
     <row r="419">
-      <c r="G419" s="67"/>
+      <c r="G419" s="61"/>
     </row>
     <row r="420">
-      <c r="G420" s="67"/>
+      <c r="G420" s="61"/>
     </row>
     <row r="421">
-      <c r="G421" s="67"/>
+      <c r="G421" s="61"/>
     </row>
     <row r="422">
-      <c r="G422" s="67"/>
+      <c r="G422" s="61"/>
     </row>
     <row r="423">
-      <c r="G423" s="67"/>
+      <c r="G423" s="61"/>
     </row>
     <row r="424">
-      <c r="G424" s="67"/>
+      <c r="G424" s="61"/>
     </row>
     <row r="425">
-      <c r="G425" s="67"/>
+      <c r="G425" s="61"/>
     </row>
     <row r="426">
-      <c r="G426" s="67"/>
+      <c r="G426" s="61"/>
     </row>
     <row r="427">
-      <c r="G427" s="67"/>
+      <c r="G427" s="61"/>
     </row>
     <row r="428">
-      <c r="G428" s="67"/>
+      <c r="G428" s="61"/>
     </row>
     <row r="429">
-      <c r="G429" s="67"/>
+      <c r="G429" s="61"/>
     </row>
     <row r="430">
-      <c r="G430" s="67"/>
+      <c r="G430" s="61"/>
     </row>
     <row r="431">
-      <c r="G431" s="67"/>
+      <c r="G431" s="61"/>
     </row>
     <row r="432">
-      <c r="G432" s="67"/>
+      <c r="G432" s="61"/>
     </row>
     <row r="433">
-      <c r="G433" s="67"/>
+      <c r="G433" s="61"/>
     </row>
     <row r="434">
-      <c r="G434" s="67"/>
+      <c r="G434" s="61"/>
     </row>
     <row r="435">
-      <c r="G435" s="67"/>
+      <c r="G435" s="61"/>
     </row>
     <row r="436">
-      <c r="G436" s="67"/>
+      <c r="G436" s="61"/>
     </row>
     <row r="437">
-      <c r="G437" s="67"/>
+      <c r="G437" s="61"/>
     </row>
     <row r="438">
-      <c r="G438" s="67"/>
+      <c r="G438" s="61"/>
     </row>
     <row r="439">
-      <c r="G439" s="67"/>
+      <c r="G439" s="61"/>
     </row>
     <row r="440">
-      <c r="G440" s="67"/>
+      <c r="G440" s="61"/>
     </row>
     <row r="441">
-      <c r="G441" s="67"/>
+      <c r="G441" s="61"/>
     </row>
     <row r="442">
-      <c r="G442" s="67"/>
+      <c r="G442" s="61"/>
     </row>
     <row r="443">
-      <c r="G443" s="67"/>
+      <c r="G443" s="61"/>
     </row>
     <row r="444">
-      <c r="G444" s="67"/>
+      <c r="G444" s="61"/>
     </row>
     <row r="445">
-      <c r="G445" s="67"/>
+      <c r="G445" s="61"/>
     </row>
     <row r="446">
-      <c r="G446" s="67"/>
+      <c r="G446" s="61"/>
     </row>
     <row r="447">
-      <c r="G447" s="67"/>
+      <c r="G447" s="61"/>
     </row>
     <row r="448">
-      <c r="G448" s="67"/>
+      <c r="G448" s="61"/>
     </row>
     <row r="449">
-      <c r="G449" s="67"/>
+      <c r="G449" s="61"/>
     </row>
     <row r="450">
-      <c r="G450" s="67"/>
+      <c r="G450" s="61"/>
     </row>
     <row r="451">
-      <c r="G451" s="67"/>
+      <c r="G451" s="61"/>
     </row>
     <row r="452">
-      <c r="G452" s="67"/>
+      <c r="G452" s="61"/>
     </row>
     <row r="453">
-      <c r="G453" s="67"/>
+      <c r="G453" s="61"/>
     </row>
     <row r="454">
-      <c r="G454" s="67"/>
+      <c r="G454" s="61"/>
     </row>
     <row r="455">
-      <c r="G455" s="67"/>
+      <c r="G455" s="61"/>
     </row>
     <row r="456">
-      <c r="G456" s="67"/>
+      <c r="G456" s="61"/>
     </row>
     <row r="457">
-      <c r="G457" s="67"/>
+      <c r="G457" s="61"/>
     </row>
     <row r="458">
-      <c r="G458" s="67"/>
+      <c r="G458" s="61"/>
     </row>
     <row r="459">
-      <c r="G459" s="67"/>
+      <c r="G459" s="61"/>
     </row>
     <row r="460">
-      <c r="G460" s="67"/>
+      <c r="G460" s="61"/>
     </row>
     <row r="461">
-      <c r="G461" s="67"/>
+      <c r="G461" s="61"/>
     </row>
     <row r="462">
-      <c r="G462" s="67"/>
+      <c r="G462" s="61"/>
     </row>
     <row r="463">
-      <c r="G463" s="67"/>
+      <c r="G463" s="61"/>
     </row>
     <row r="464">
-      <c r="G464" s="67"/>
+      <c r="G464" s="61"/>
     </row>
     <row r="465">
-      <c r="G465" s="67"/>
+      <c r="G465" s="61"/>
     </row>
     <row r="466">
-      <c r="G466" s="67"/>
+      <c r="G466" s="61"/>
     </row>
     <row r="467">
-      <c r="G467" s="67"/>
+      <c r="G467" s="61"/>
     </row>
     <row r="468">
-      <c r="G468" s="67"/>
+      <c r="G468" s="61"/>
     </row>
     <row r="469">
-      <c r="G469" s="67"/>
+      <c r="G469" s="61"/>
     </row>
     <row r="470">
-      <c r="G470" s="67"/>
+      <c r="G470" s="61"/>
     </row>
     <row r="471">
-      <c r="G471" s="67"/>
+      <c r="G471" s="61"/>
     </row>
     <row r="472">
-      <c r="G472" s="67"/>
+      <c r="G472" s="61"/>
     </row>
     <row r="473">
-      <c r="G473" s="67"/>
+      <c r="G473" s="61"/>
     </row>
     <row r="474">
-      <c r="G474" s="67"/>
+      <c r="G474" s="61"/>
     </row>
     <row r="475">
-      <c r="G475" s="67"/>
+      <c r="G475" s="61"/>
     </row>
     <row r="476">
-      <c r="G476" s="67"/>
+      <c r="G476" s="61"/>
     </row>
     <row r="477">
-      <c r="G477" s="67"/>
+      <c r="G477" s="61"/>
     </row>
     <row r="478">
-      <c r="G478" s="67"/>
+      <c r="G478" s="61"/>
     </row>
     <row r="479">
-      <c r="G479" s="67"/>
+      <c r="G479" s="61"/>
     </row>
     <row r="480">
-      <c r="G480" s="67"/>
+      <c r="G480" s="61"/>
     </row>
     <row r="481">
-      <c r="G481" s="67"/>
+      <c r="G481" s="61"/>
     </row>
     <row r="482">
-      <c r="G482" s="67"/>
+      <c r="G482" s="61"/>
     </row>
     <row r="483">
-      <c r="G483" s="67"/>
+      <c r="G483" s="61"/>
     </row>
     <row r="484">
-      <c r="G484" s="67"/>
+      <c r="G484" s="61"/>
     </row>
     <row r="485">
-      <c r="G485" s="67"/>
+      <c r="G485" s="61"/>
     </row>
     <row r="486">
-      <c r="G486" s="67"/>
+      <c r="G486" s="61"/>
     </row>
     <row r="487">
-      <c r="G487" s="67"/>
+      <c r="G487" s="61"/>
     </row>
     <row r="488">
-      <c r="G488" s="67"/>
+      <c r="G488" s="61"/>
     </row>
     <row r="489">
-      <c r="G489" s="67"/>
+      <c r="G489" s="61"/>
     </row>
     <row r="490">
-      <c r="G490" s="67"/>
+      <c r="G490" s="61"/>
     </row>
     <row r="491">
-      <c r="G491" s="67"/>
+      <c r="G491" s="61"/>
     </row>
     <row r="492">
-      <c r="G492" s="67"/>
+      <c r="G492" s="61"/>
     </row>
     <row r="493">
-      <c r="G493" s="67"/>
+      <c r="G493" s="61"/>
     </row>
     <row r="494">
-      <c r="G494" s="67"/>
+      <c r="G494" s="61"/>
     </row>
     <row r="495">
-      <c r="G495" s="67"/>
+      <c r="G495" s="61"/>
     </row>
     <row r="496">
-      <c r="G496" s="67"/>
+      <c r="G496" s="61"/>
     </row>
     <row r="497">
-      <c r="G497" s="67"/>
+      <c r="G497" s="61"/>
     </row>
     <row r="498">
-      <c r="G498" s="67"/>
+      <c r="G498" s="61"/>
     </row>
     <row r="499">
-      <c r="G499" s="67"/>
+      <c r="G499" s="61"/>
     </row>
     <row r="500">
-      <c r="G500" s="67"/>
+      <c r="G500" s="61"/>
     </row>
     <row r="501">
-      <c r="G501" s="67"/>
+      <c r="G501" s="61"/>
     </row>
     <row r="502">
-      <c r="G502" s="67"/>
+      <c r="G502" s="61"/>
     </row>
     <row r="503">
-      <c r="G503" s="67"/>
+      <c r="G503" s="61"/>
     </row>
     <row r="504">
-      <c r="G504" s="67"/>
+      <c r="G504" s="61"/>
     </row>
     <row r="505">
-      <c r="G505" s="67"/>
+      <c r="G505" s="61"/>
     </row>
     <row r="506">
-      <c r="G506" s="67"/>
+      <c r="G506" s="61"/>
     </row>
     <row r="507">
-      <c r="G507" s="67"/>
+      <c r="G507" s="61"/>
     </row>
     <row r="508">
-      <c r="G508" s="67"/>
+      <c r="G508" s="61"/>
     </row>
     <row r="509">
-      <c r="G509" s="67"/>
+      <c r="G509" s="61"/>
     </row>
     <row r="510">
-      <c r="G510" s="67"/>
+      <c r="G510" s="61"/>
     </row>
     <row r="511">
-      <c r="G511" s="67"/>
+      <c r="G511" s="61"/>
     </row>
     <row r="512">
-      <c r="G512" s="67"/>
+      <c r="G512" s="61"/>
     </row>
     <row r="513">
-      <c r="G513" s="67"/>
+      <c r="G513" s="61"/>
     </row>
     <row r="514">
-      <c r="G514" s="67"/>
+      <c r="G514" s="61"/>
     </row>
     <row r="515">
-      <c r="G515" s="67"/>
+      <c r="G515" s="61"/>
     </row>
     <row r="516">
-      <c r="G516" s="67"/>
+      <c r="G516" s="61"/>
     </row>
     <row r="517">
-      <c r="G517" s="67"/>
+      <c r="G517" s="61"/>
     </row>
     <row r="518">
-      <c r="G518" s="67"/>
+      <c r="G518" s="61"/>
     </row>
     <row r="519">
-      <c r="G519" s="67"/>
+      <c r="G519" s="61"/>
     </row>
     <row r="520">
-      <c r="G520" s="67"/>
+      <c r="G520" s="61"/>
     </row>
     <row r="521">
-      <c r="G521" s="67"/>
+      <c r="G521" s="61"/>
     </row>
     <row r="522">
-      <c r="G522" s="67"/>
+      <c r="G522" s="61"/>
     </row>
     <row r="523">
-      <c r="G523" s="67"/>
+      <c r="G523" s="61"/>
     </row>
     <row r="524">
-      <c r="G524" s="67"/>
+      <c r="G524" s="61"/>
     </row>
     <row r="525">
-      <c r="G525" s="67"/>
+      <c r="G525" s="61"/>
     </row>
     <row r="526">
-      <c r="G526" s="67"/>
+      <c r="G526" s="61"/>
     </row>
     <row r="527">
-      <c r="G527" s="67"/>
+      <c r="G527" s="61"/>
     </row>
     <row r="528">
-      <c r="G528" s="67"/>
+      <c r="G528" s="61"/>
     </row>
     <row r="529">
-      <c r="G529" s="67"/>
+      <c r="G529" s="61"/>
     </row>
     <row r="530">
-      <c r="G530" s="67"/>
+      <c r="G530" s="61"/>
     </row>
     <row r="531">
-      <c r="G531" s="67"/>
+      <c r="G531" s="61"/>
     </row>
     <row r="532">
-      <c r="G532" s="67"/>
+      <c r="G532" s="61"/>
     </row>
     <row r="533">
-      <c r="G533" s="67"/>
+      <c r="G533" s="61"/>
     </row>
     <row r="534">
-      <c r="G534" s="67"/>
+      <c r="G534" s="61"/>
     </row>
     <row r="535">
-      <c r="G535" s="67"/>
+      <c r="G535" s="61"/>
     </row>
     <row r="536">
-      <c r="G536" s="67"/>
+      <c r="G536" s="61"/>
     </row>
     <row r="537">
-      <c r="G537" s="67"/>
+      <c r="G537" s="61"/>
     </row>
     <row r="538">
-      <c r="G538" s="67"/>
+      <c r="G538" s="61"/>
     </row>
     <row r="539">
-      <c r="G539" s="67"/>
+      <c r="G539" s="61"/>
     </row>
     <row r="540">
-      <c r="G540" s="67"/>
+      <c r="G540" s="61"/>
     </row>
     <row r="541">
-      <c r="G541" s="67"/>
+      <c r="G541" s="61"/>
     </row>
     <row r="542">
-      <c r="G542" s="67"/>
+      <c r="G542" s="61"/>
     </row>
     <row r="543">
-      <c r="G543" s="67"/>
+      <c r="G543" s="61"/>
     </row>
     <row r="544">
-      <c r="G544" s="67"/>
+      <c r="G544" s="61"/>
     </row>
     <row r="545">
-      <c r="G545" s="67"/>
+      <c r="G545" s="61"/>
     </row>
     <row r="546">
-      <c r="G546" s="67"/>
+      <c r="G546" s="61"/>
     </row>
     <row r="547">
-      <c r="G547" s="67"/>
+      <c r="G547" s="61"/>
     </row>
     <row r="548">
-      <c r="G548" s="67"/>
+      <c r="G548" s="61"/>
     </row>
     <row r="549">
-      <c r="G549" s="67"/>
+      <c r="G549" s="61"/>
     </row>
     <row r="550">
-      <c r="G550" s="67"/>
+      <c r="G550" s="61"/>
     </row>
     <row r="551">
-      <c r="G551" s="67"/>
+      <c r="G551" s="61"/>
     </row>
     <row r="552">
-      <c r="G552" s="67"/>
+      <c r="G552" s="61"/>
     </row>
     <row r="553">
-      <c r="G553" s="67"/>
+      <c r="G553" s="61"/>
     </row>
     <row r="554">
-      <c r="G554" s="67"/>
+      <c r="G554" s="61"/>
     </row>
     <row r="555">
-      <c r="G555" s="67"/>
+      <c r="G555" s="61"/>
     </row>
     <row r="556">
-      <c r="G556" s="67"/>
+      <c r="G556" s="61"/>
     </row>
     <row r="557">
-      <c r="G557" s="67"/>
+      <c r="G557" s="61"/>
     </row>
     <row r="558">
-      <c r="G558" s="67"/>
+      <c r="G558" s="61"/>
     </row>
     <row r="559">
-      <c r="G559" s="67"/>
+      <c r="G559" s="61"/>
     </row>
     <row r="560">
-      <c r="G560" s="67"/>
+      <c r="G560" s="61"/>
     </row>
     <row r="561">
-      <c r="G561" s="67"/>
+      <c r="G561" s="61"/>
     </row>
     <row r="562">
-      <c r="G562" s="67"/>
+      <c r="G562" s="61"/>
     </row>
     <row r="563">
-      <c r="G563" s="67"/>
+      <c r="G563" s="61"/>
     </row>
     <row r="564">
-      <c r="G564" s="67"/>
+      <c r="G564" s="61"/>
     </row>
     <row r="565">
-      <c r="G565" s="67"/>
+      <c r="G565" s="61"/>
     </row>
     <row r="566">
-      <c r="G566" s="67"/>
+      <c r="G566" s="61"/>
     </row>
     <row r="567">
-      <c r="G567" s="67"/>
+      <c r="G567" s="61"/>
     </row>
     <row r="568">
-      <c r="G568" s="67"/>
+      <c r="G568" s="61"/>
     </row>
     <row r="569">
-      <c r="G569" s="67"/>
+      <c r="G569" s="61"/>
     </row>
     <row r="570">
-      <c r="G570" s="67"/>
+      <c r="G570" s="61"/>
     </row>
     <row r="571">
-      <c r="G571" s="67"/>
+      <c r="G571" s="61"/>
     </row>
     <row r="572">
-      <c r="G572" s="67"/>
+      <c r="G572" s="61"/>
     </row>
     <row r="573">
-      <c r="G573" s="67"/>
+      <c r="G573" s="61"/>
     </row>
     <row r="574">
-      <c r="G574" s="67"/>
+      <c r="G574" s="61"/>
     </row>
     <row r="575">
-      <c r="G575" s="67"/>
+      <c r="G575" s="61"/>
     </row>
     <row r="576">
-      <c r="G576" s="67"/>
+      <c r="G576" s="61"/>
     </row>
     <row r="577">
-      <c r="G577" s="67"/>
+      <c r="G577" s="61"/>
     </row>
     <row r="578">
-      <c r="G578" s="67"/>
+      <c r="G578" s="61"/>
     </row>
     <row r="579">
-      <c r="G579" s="67"/>
+      <c r="G579" s="61"/>
     </row>
     <row r="580">
-      <c r="G580" s="67"/>
+      <c r="G580" s="61"/>
     </row>
     <row r="581">
-      <c r="G581" s="67"/>
+      <c r="G581" s="61"/>
     </row>
     <row r="582">
-      <c r="G582" s="67"/>
+      <c r="G582" s="61"/>
     </row>
     <row r="583">
-      <c r="G583" s="67"/>
+      <c r="G583" s="61"/>
     </row>
     <row r="584">
-      <c r="G584" s="67"/>
+      <c r="G584" s="61"/>
     </row>
     <row r="585">
-      <c r="G585" s="67"/>
+      <c r="G585" s="61"/>
     </row>
     <row r="586">
-      <c r="G586" s="67"/>
+      <c r="G586" s="61"/>
     </row>
     <row r="587">
-      <c r="G587" s="67"/>
+      <c r="G587" s="61"/>
     </row>
     <row r="588">
-      <c r="G588" s="67"/>
+      <c r="G588" s="61"/>
     </row>
     <row r="589">
-      <c r="G589" s="67"/>
+      <c r="G589" s="61"/>
     </row>
     <row r="590">
-      <c r="G590" s="67"/>
+      <c r="G590" s="61"/>
     </row>
     <row r="591">
-      <c r="G591" s="67"/>
+      <c r="G591" s="61"/>
     </row>
     <row r="592">
-      <c r="G592" s="67"/>
+      <c r="G592" s="61"/>
     </row>
     <row r="593">
-      <c r="G593" s="67"/>
+      <c r="G593" s="61"/>
     </row>
     <row r="594">
-      <c r="G594" s="67"/>
+      <c r="G594" s="61"/>
     </row>
     <row r="595">
-      <c r="G595" s="67"/>
+      <c r="G595" s="61"/>
     </row>
     <row r="596">
-      <c r="G596" s="67"/>
+      <c r="G596" s="61"/>
     </row>
     <row r="597">
-      <c r="G597" s="67"/>
+      <c r="G597" s="61"/>
     </row>
     <row r="598">
-      <c r="G598" s="67"/>
+      <c r="G598" s="61"/>
     </row>
     <row r="599">
-      <c r="G599" s="67"/>
+      <c r="G599" s="61"/>
     </row>
     <row r="600">
-      <c r="G600" s="67"/>
+      <c r="G600" s="61"/>
     </row>
     <row r="601">
-      <c r="G601" s="67"/>
+      <c r="G601" s="61"/>
     </row>
     <row r="602">
-      <c r="G602" s="67"/>
+      <c r="G602" s="61"/>
     </row>
     <row r="603">
-      <c r="G603" s="67"/>
+      <c r="G603" s="61"/>
     </row>
     <row r="604">
-      <c r="G604" s="67"/>
+      <c r="G604" s="61"/>
     </row>
     <row r="605">
-      <c r="G605" s="67"/>
+      <c r="G605" s="61"/>
     </row>
     <row r="606">
-      <c r="G606" s="67"/>
+      <c r="G606" s="61"/>
     </row>
     <row r="607">
-      <c r="G607" s="67"/>
+      <c r="G607" s="61"/>
     </row>
     <row r="608">
-      <c r="G608" s="67"/>
+      <c r="G608" s="61"/>
     </row>
     <row r="609">
-      <c r="G609" s="67"/>
+      <c r="G609" s="61"/>
     </row>
     <row r="610">
-      <c r="G610" s="67"/>
+      <c r="G610" s="61"/>
     </row>
     <row r="611">
-      <c r="G611" s="67"/>
+      <c r="G611" s="61"/>
     </row>
     <row r="612">
-      <c r="G612" s="67"/>
+      <c r="G612" s="61"/>
     </row>
     <row r="613">
-      <c r="G613" s="67"/>
+      <c r="G613" s="61"/>
     </row>
     <row r="614">
-      <c r="G614" s="67"/>
+      <c r="G614" s="61"/>
     </row>
     <row r="615">
-      <c r="G615" s="67"/>
+      <c r="G615" s="61"/>
     </row>
     <row r="616">
-      <c r="G616" s="67"/>
+      <c r="G616" s="61"/>
     </row>
     <row r="617">
-      <c r="G617" s="67"/>
+      <c r="G617" s="61"/>
     </row>
     <row r="618">
-      <c r="G618" s="67"/>
+      <c r="G618" s="61"/>
     </row>
     <row r="619">
-      <c r="G619" s="67"/>
+      <c r="G619" s="61"/>
     </row>
     <row r="620">
-      <c r="G620" s="67"/>
+      <c r="G620" s="61"/>
     </row>
     <row r="621">
-      <c r="G621" s="67"/>
+      <c r="G621" s="61"/>
     </row>
     <row r="622">
-      <c r="G622" s="67"/>
+      <c r="G622" s="61"/>
     </row>
     <row r="623">
-      <c r="G623" s="67"/>
+      <c r="G623" s="61"/>
     </row>
     <row r="624">
-      <c r="G624" s="67"/>
+      <c r="G624" s="61"/>
     </row>
     <row r="625">
-      <c r="G625" s="67"/>
+      <c r="G625" s="61"/>
     </row>
     <row r="626">
-      <c r="G626" s="67"/>
+      <c r="G626" s="61"/>
     </row>
     <row r="627">
-      <c r="G627" s="67"/>
+      <c r="G627" s="61"/>
     </row>
     <row r="628">
-      <c r="G628" s="67"/>
+      <c r="G628" s="61"/>
     </row>
     <row r="629">
-      <c r="G629" s="67"/>
+      <c r="G629" s="61"/>
     </row>
     <row r="630">
-      <c r="G630" s="67"/>
+      <c r="G630" s="61"/>
     </row>
     <row r="631">
-      <c r="G631" s="67"/>
+      <c r="G631" s="61"/>
     </row>
     <row r="632">
-      <c r="G632" s="67"/>
+      <c r="G632" s="61"/>
     </row>
     <row r="633">
-      <c r="G633" s="67"/>
+      <c r="G633" s="61"/>
     </row>
     <row r="634">
-      <c r="G634" s="67"/>
+      <c r="G634" s="61"/>
     </row>
     <row r="635">
-      <c r="G635" s="67"/>
+      <c r="G635" s="61"/>
     </row>
     <row r="636">
-      <c r="G636" s="67"/>
+      <c r="G636" s="61"/>
     </row>
     <row r="637">
-      <c r="G637" s="67"/>
+      <c r="G637" s="61"/>
     </row>
     <row r="638">
-      <c r="G638" s="67"/>
+      <c r="G638" s="61"/>
     </row>
     <row r="639">
-      <c r="G639" s="67"/>
+      <c r="G639" s="61"/>
     </row>
     <row r="640">
-      <c r="G640" s="67"/>
+      <c r="G640" s="61"/>
     </row>
     <row r="641">
-      <c r="G641" s="67"/>
+      <c r="G641" s="61"/>
     </row>
     <row r="642">
-      <c r="G642" s="67"/>
+      <c r="G642" s="61"/>
     </row>
     <row r="643">
-      <c r="G643" s="67"/>
+      <c r="G643" s="61"/>
     </row>
     <row r="644">
-      <c r="G644" s="67"/>
+      <c r="G644" s="61"/>
     </row>
     <row r="645">
-      <c r="G645" s="67"/>
+      <c r="G645" s="61"/>
     </row>
     <row r="646">
-      <c r="G646" s="67"/>
+      <c r="G646" s="61"/>
     </row>
     <row r="647">
-      <c r="G647" s="67"/>
+      <c r="G647" s="61"/>
     </row>
     <row r="648">
-      <c r="G648" s="67"/>
+      <c r="G648" s="61"/>
     </row>
     <row r="649">
-      <c r="G649" s="67"/>
+      <c r="G649" s="61"/>
     </row>
     <row r="650">
-      <c r="G650" s="67"/>
+      <c r="G650" s="61"/>
     </row>
     <row r="651">
-      <c r="G651" s="67"/>
+      <c r="G651" s="61"/>
     </row>
     <row r="652">
-      <c r="G652" s="67"/>
+      <c r="G652" s="61"/>
     </row>
     <row r="653">
-      <c r="G653" s="67"/>
+      <c r="G653" s="61"/>
     </row>
     <row r="654">
-      <c r="G654" s="67"/>
+      <c r="G654" s="61"/>
     </row>
     <row r="655">
-      <c r="G655" s="67"/>
+      <c r="G655" s="61"/>
     </row>
     <row r="656">
-      <c r="G656" s="67"/>
+      <c r="G656" s="61"/>
     </row>
     <row r="657">
-      <c r="G657" s="67"/>
+      <c r="G657" s="61"/>
     </row>
     <row r="658">
-      <c r="G658" s="67"/>
+      <c r="G658" s="61"/>
     </row>
     <row r="659">
-      <c r="G659" s="67"/>
+      <c r="G659" s="61"/>
     </row>
     <row r="660">
-      <c r="G660" s="67"/>
+      <c r="G660" s="61"/>
     </row>
     <row r="661">
-      <c r="G661" s="67"/>
+      <c r="G661" s="61"/>
     </row>
     <row r="662">
-      <c r="G662" s="67"/>
+      <c r="G662" s="61"/>
     </row>
     <row r="663">
-      <c r="G663" s="67"/>
+      <c r="G663" s="61"/>
     </row>
     <row r="664">
-      <c r="G664" s="67"/>
+      <c r="G664" s="61"/>
     </row>
     <row r="665">
-      <c r="G665" s="67"/>
+      <c r="G665" s="61"/>
     </row>
     <row r="666">
-      <c r="G666" s="67"/>
+      <c r="G666" s="61"/>
     </row>
     <row r="667">
-      <c r="G667" s="67"/>
+      <c r="G667" s="61"/>
     </row>
     <row r="668">
-      <c r="G668" s="67"/>
+      <c r="G668" s="61"/>
     </row>
     <row r="669">
-      <c r="G669" s="67"/>
+      <c r="G669" s="61"/>
     </row>
     <row r="670">
-      <c r="G670" s="67"/>
+      <c r="G670" s="61"/>
     </row>
     <row r="671">
-      <c r="G671" s="67"/>
+      <c r="G671" s="61"/>
     </row>
     <row r="672">
-      <c r="G672" s="67"/>
+      <c r="G672" s="61"/>
     </row>
     <row r="673">
-      <c r="G673" s="67"/>
+      <c r="G673" s="61"/>
     </row>
     <row r="674">
-      <c r="G674" s="67"/>
+      <c r="G674" s="61"/>
     </row>
     <row r="675">
-      <c r="G675" s="67"/>
+      <c r="G675" s="61"/>
     </row>
     <row r="676">
-      <c r="G676" s="67"/>
+      <c r="G676" s="61"/>
     </row>
     <row r="677">
-      <c r="G677" s="67"/>
+      <c r="G677" s="61"/>
     </row>
     <row r="678">
-      <c r="G678" s="67"/>
+      <c r="G678" s="61"/>
     </row>
     <row r="679">
-      <c r="G679" s="67"/>
+      <c r="G679" s="61"/>
     </row>
     <row r="680">
-      <c r="G680" s="67"/>
+      <c r="G680" s="61"/>
     </row>
     <row r="681">
-      <c r="G681" s="67"/>
+      <c r="G681" s="61"/>
     </row>
     <row r="682">
-      <c r="G682" s="67"/>
+      <c r="G682" s="61"/>
     </row>
     <row r="683">
-      <c r="G683" s="67"/>
+      <c r="G683" s="61"/>
     </row>
     <row r="684">
-      <c r="G684" s="67"/>
+      <c r="G684" s="61"/>
     </row>
     <row r="685">
-      <c r="G685" s="67"/>
+      <c r="G685" s="61"/>
     </row>
     <row r="686">
-      <c r="G686" s="67"/>
+      <c r="G686" s="61"/>
     </row>
     <row r="687">
-      <c r="G687" s="67"/>
+      <c r="G687" s="61"/>
     </row>
     <row r="688">
-      <c r="G688" s="67"/>
+      <c r="G688" s="61"/>
     </row>
     <row r="689">
-      <c r="G689" s="67"/>
+      <c r="G689" s="61"/>
     </row>
     <row r="690">
-      <c r="G690" s="67"/>
+      <c r="G690" s="61"/>
     </row>
     <row r="691">
-      <c r="G691" s="67"/>
+      <c r="G691" s="61"/>
     </row>
     <row r="692">
-      <c r="G692" s="67"/>
+      <c r="G692" s="61"/>
     </row>
     <row r="693">
-      <c r="G693" s="67"/>
+      <c r="G693" s="61"/>
     </row>
     <row r="694">
-      <c r="G694" s="67"/>
+      <c r="G694" s="61"/>
     </row>
     <row r="695">
-      <c r="G695" s="67"/>
+      <c r="G695" s="61"/>
     </row>
     <row r="696">
-      <c r="G696" s="67"/>
+      <c r="G696" s="61"/>
     </row>
     <row r="697">
-      <c r="G697" s="67"/>
+      <c r="G697" s="61"/>
     </row>
     <row r="698">
-      <c r="G698" s="67"/>
+      <c r="G698" s="61"/>
     </row>
     <row r="699">
-      <c r="G699" s="67"/>
+      <c r="G699" s="61"/>
     </row>
     <row r="700">
-      <c r="G700" s="67"/>
+      <c r="G700" s="61"/>
     </row>
     <row r="701">
-      <c r="G701" s="67"/>
+      <c r="G701" s="61"/>
     </row>
     <row r="702">
-      <c r="G702" s="67"/>
+      <c r="G702" s="61"/>
     </row>
     <row r="703">
-      <c r="G703" s="67"/>
+      <c r="G703" s="61"/>
     </row>
     <row r="704">
-      <c r="G704" s="67"/>
+      <c r="G704" s="61"/>
     </row>
     <row r="705">
-      <c r="G705" s="67"/>
+      <c r="G705" s="61"/>
     </row>
     <row r="706">
-      <c r="G706" s="67"/>
+      <c r="G706" s="61"/>
     </row>
     <row r="707">
-      <c r="G707" s="67"/>
+      <c r="G707" s="61"/>
     </row>
     <row r="708">
-      <c r="G708" s="67"/>
+      <c r="G708" s="61"/>
     </row>
     <row r="709">
-      <c r="G709" s="67"/>
+      <c r="G709" s="61"/>
     </row>
     <row r="710">
-      <c r="G710" s="67"/>
+      <c r="G710" s="61"/>
     </row>
     <row r="711">
-      <c r="G711" s="67"/>
+      <c r="G711" s="61"/>
     </row>
     <row r="712">
-      <c r="G712" s="67"/>
+      <c r="G712" s="61"/>
     </row>
     <row r="713">
-      <c r="G713" s="67"/>
+      <c r="G713" s="61"/>
     </row>
     <row r="714">
-      <c r="G714" s="67"/>
+      <c r="G714" s="61"/>
     </row>
     <row r="715">
-      <c r="G715" s="67"/>
+      <c r="G715" s="61"/>
     </row>
     <row r="716">
-      <c r="G716" s="67"/>
+      <c r="G716" s="61"/>
     </row>
     <row r="717">
-      <c r="G717" s="67"/>
+      <c r="G717" s="61"/>
     </row>
     <row r="718">
-      <c r="G718" s="67"/>
+      <c r="G718" s="61"/>
     </row>
     <row r="719">
-      <c r="G719" s="67"/>
+      <c r="G719" s="61"/>
     </row>
     <row r="720">
-      <c r="G720" s="67"/>
+      <c r="G720" s="61"/>
     </row>
     <row r="721">
-      <c r="G721" s="67"/>
+      <c r="G721" s="61"/>
     </row>
     <row r="722">
-      <c r="G722" s="67"/>
+      <c r="G722" s="61"/>
     </row>
     <row r="723">
-      <c r="G723" s="67"/>
+      <c r="G723" s="61"/>
     </row>
     <row r="724">
-      <c r="G724" s="67"/>
+      <c r="G724" s="61"/>
     </row>
     <row r="725">
-      <c r="G725" s="67"/>
+      <c r="G725" s="61"/>
     </row>
     <row r="726">
-      <c r="G726" s="67"/>
+      <c r="G726" s="61"/>
     </row>
     <row r="727">
-      <c r="G727" s="67"/>
+      <c r="G727" s="61"/>
     </row>
     <row r="728">
-      <c r="G728" s="67"/>
+      <c r="G728" s="61"/>
     </row>
     <row r="729">
-      <c r="G729" s="67"/>
+      <c r="G729" s="61"/>
     </row>
     <row r="730">
-      <c r="G730" s="67"/>
+      <c r="G730" s="61"/>
     </row>
     <row r="731">
-      <c r="G731" s="67"/>
+      <c r="G731" s="61"/>
     </row>
     <row r="732">
-      <c r="G732" s="67"/>
+      <c r="G732" s="61"/>
     </row>
     <row r="733">
-      <c r="G733" s="67"/>
+      <c r="G733" s="61"/>
     </row>
     <row r="734">
-      <c r="G734" s="67"/>
+      <c r="G734" s="61"/>
     </row>
     <row r="735">
-      <c r="G735" s="67"/>
+      <c r="G735" s="61"/>
     </row>
     <row r="736">
-      <c r="G736" s="67"/>
+      <c r="G736" s="61"/>
     </row>
     <row r="737">
-      <c r="G737" s="67"/>
+      <c r="G737" s="61"/>
     </row>
     <row r="738">
-      <c r="G738" s="67"/>
+      <c r="G738" s="61"/>
     </row>
     <row r="739">
-      <c r="G739" s="67"/>
+      <c r="G739" s="61"/>
     </row>
     <row r="740">
-      <c r="G740" s="67"/>
+      <c r="G740" s="61"/>
     </row>
     <row r="741">
-      <c r="G741" s="67"/>
+      <c r="G741" s="61"/>
     </row>
     <row r="742">
-      <c r="G742" s="67"/>
+      <c r="G742" s="61"/>
     </row>
     <row r="743">
-      <c r="G743" s="67"/>
+      <c r="G743" s="61"/>
     </row>
     <row r="744">
-      <c r="G744" s="67"/>
+      <c r="G744" s="61"/>
     </row>
     <row r="745">
-      <c r="G745" s="67"/>
+      <c r="G745" s="61"/>
     </row>
     <row r="746">
-      <c r="G746" s="67"/>
+      <c r="G746" s="61"/>
     </row>
     <row r="747">
-      <c r="G747" s="67"/>
+      <c r="G747" s="61"/>
     </row>
     <row r="748">
-      <c r="G748" s="67"/>
+      <c r="G748" s="61"/>
     </row>
     <row r="749">
-      <c r="G749" s="67"/>
+      <c r="G749" s="61"/>
     </row>
     <row r="750">
-      <c r="G750" s="67"/>
+      <c r="G750" s="61"/>
     </row>
     <row r="751">
-      <c r="G751" s="67"/>
+      <c r="G751" s="61"/>
     </row>
     <row r="752">
-      <c r="G752" s="67"/>
+      <c r="G752" s="61"/>
     </row>
     <row r="753">
-      <c r="G753" s="67"/>
+      <c r="G753" s="61"/>
     </row>
     <row r="754">
-      <c r="G754" s="67"/>
+      <c r="G754" s="61"/>
     </row>
     <row r="755">
-      <c r="G755" s="67"/>
+      <c r="G755" s="61"/>
     </row>
     <row r="756">
-      <c r="G756" s="67"/>
+      <c r="G756" s="61"/>
     </row>
     <row r="757">
-      <c r="G757" s="67"/>
+      <c r="G757" s="61"/>
     </row>
     <row r="758">
-      <c r="G758" s="67"/>
+      <c r="G758" s="61"/>
     </row>
     <row r="759">
-      <c r="G759" s="67"/>
+      <c r="G759" s="61"/>
     </row>
     <row r="760">
-      <c r="G760" s="67"/>
+      <c r="G760" s="61"/>
     </row>
     <row r="761">
-      <c r="G761" s="67"/>
+      <c r="G761" s="61"/>
     </row>
     <row r="762">
-      <c r="G762" s="67"/>
+      <c r="G762" s="61"/>
     </row>
     <row r="763">
-      <c r="G763" s="67"/>
+      <c r="G763" s="61"/>
     </row>
     <row r="764">
-      <c r="G764" s="67"/>
+      <c r="G764" s="61"/>
     </row>
     <row r="765">
-      <c r="G765" s="67"/>
+      <c r="G765" s="61"/>
     </row>
     <row r="766">
-      <c r="G766" s="67"/>
+      <c r="G766" s="61"/>
     </row>
     <row r="767">
-      <c r="G767" s="67"/>
+      <c r="G767" s="61"/>
     </row>
     <row r="768">
-      <c r="G768" s="67"/>
+      <c r="G768" s="61"/>
     </row>
     <row r="769">
-      <c r="G769" s="67"/>
+      <c r="G769" s="61"/>
     </row>
     <row r="770">
-      <c r="G770" s="67"/>
+      <c r="G770" s="61"/>
     </row>
     <row r="771">
-      <c r="G771" s="67"/>
+      <c r="G771" s="61"/>
     </row>
     <row r="772">
-      <c r="G772" s="67"/>
+      <c r="G772" s="61"/>
     </row>
     <row r="773">
-      <c r="G773" s="67"/>
+      <c r="G773" s="61"/>
     </row>
     <row r="774">
-      <c r="G774" s="67"/>
+      <c r="G774" s="61"/>
     </row>
     <row r="775">
-      <c r="G775" s="67"/>
+      <c r="G775" s="61"/>
     </row>
     <row r="776">
-      <c r="G776" s="67"/>
+      <c r="G776" s="61"/>
     </row>
     <row r="777">
-      <c r="G777" s="67"/>
+      <c r="G777" s="61"/>
     </row>
     <row r="778">
-      <c r="G778" s="67"/>
+      <c r="G778" s="61"/>
     </row>
     <row r="779">
-      <c r="G779" s="67"/>
+      <c r="G779" s="61"/>
     </row>
     <row r="780">
-      <c r="G780" s="67"/>
+      <c r="G780" s="61"/>
     </row>
     <row r="781">
-      <c r="G781" s="67"/>
+      <c r="G781" s="61"/>
     </row>
     <row r="782">
-      <c r="G782" s="67"/>
+      <c r="G782" s="61"/>
     </row>
     <row r="783">
-      <c r="G783" s="67"/>
+      <c r="G783" s="61"/>
     </row>
     <row r="784">
-      <c r="G784" s="67"/>
+      <c r="G784" s="61"/>
     </row>
     <row r="785">
-      <c r="G785" s="67"/>
+      <c r="G785" s="61"/>
     </row>
     <row r="786">
-      <c r="G786" s="67"/>
+      <c r="G786" s="61"/>
     </row>
     <row r="787">
-      <c r="G787" s="67"/>
+      <c r="G787" s="61"/>
     </row>
     <row r="788">
-      <c r="G788" s="67"/>
+      <c r="G788" s="61"/>
     </row>
     <row r="789">
-      <c r="G789" s="67"/>
+      <c r="G789" s="61"/>
     </row>
     <row r="790">
-      <c r="G790" s="67"/>
+      <c r="G790" s="61"/>
     </row>
     <row r="791">
-      <c r="G791" s="67"/>
+      <c r="G791" s="61"/>
     </row>
     <row r="792">
-      <c r="G792" s="67"/>
+      <c r="G792" s="61"/>
     </row>
     <row r="793">
-      <c r="G793" s="67"/>
+      <c r="G793" s="61"/>
     </row>
     <row r="794">
-      <c r="G794" s="67"/>
+      <c r="G794" s="61"/>
     </row>
     <row r="795">
-      <c r="G795" s="67"/>
+      <c r="G795" s="61"/>
     </row>
     <row r="796">
-      <c r="G796" s="67"/>
+      <c r="G796" s="61"/>
     </row>
     <row r="797">
-      <c r="G797" s="67"/>
+      <c r="G797" s="61"/>
     </row>
     <row r="798">
-      <c r="G798" s="67"/>
+      <c r="G798" s="61"/>
     </row>
     <row r="799">
-      <c r="G799" s="67"/>
+      <c r="G799" s="61"/>
     </row>
     <row r="800">
-      <c r="G800" s="67"/>
+      <c r="G800" s="61"/>
     </row>
     <row r="801">
-      <c r="G801" s="67"/>
+      <c r="G801" s="61"/>
     </row>
     <row r="802">
-      <c r="G802" s="67"/>
+      <c r="G802" s="61"/>
     </row>
     <row r="803">
-      <c r="G803" s="67"/>
+      <c r="G803" s="61"/>
     </row>
     <row r="804">
-      <c r="G804" s="67"/>
+      <c r="G804" s="61"/>
     </row>
     <row r="805">
-      <c r="G805" s="67"/>
+      <c r="G805" s="61"/>
     </row>
     <row r="806">
-      <c r="G806" s="67"/>
+      <c r="G806" s="61"/>
     </row>
     <row r="807">
-      <c r="G807" s="67"/>
+      <c r="G807" s="61"/>
     </row>
     <row r="808">
-      <c r="G808" s="67"/>
+      <c r="G808" s="61"/>
     </row>
     <row r="809">
-      <c r="G809" s="67"/>
+      <c r="G809" s="61"/>
     </row>
     <row r="810">
-      <c r="G810" s="67"/>
+      <c r="G810" s="61"/>
     </row>
     <row r="811">
-      <c r="G811" s="67"/>
+      <c r="G811" s="61"/>
     </row>
     <row r="812">
-      <c r="G812" s="67"/>
+      <c r="G812" s="61"/>
     </row>
     <row r="813">
-      <c r="G813" s="67"/>
+      <c r="G813" s="61"/>
     </row>
     <row r="814">
-      <c r="G814" s="67"/>
+      <c r="G814" s="61"/>
     </row>
     <row r="815">
-      <c r="G815" s="67"/>
+      <c r="G815" s="61"/>
     </row>
     <row r="816">
-      <c r="G816" s="67"/>
+      <c r="G816" s="61"/>
     </row>
     <row r="817">
-      <c r="G817" s="67"/>
+      <c r="G817" s="61"/>
     </row>
     <row r="818">
-      <c r="G818" s="67"/>
+      <c r="G818" s="61"/>
     </row>
     <row r="819">
-      <c r="G819" s="67"/>
+      <c r="G819" s="61"/>
     </row>
     <row r="820">
-      <c r="G820" s="67"/>
+      <c r="G820" s="61"/>
     </row>
     <row r="821">
-      <c r="G821" s="67"/>
+      <c r="G821" s="61"/>
     </row>
     <row r="822">
-      <c r="G822" s="67"/>
+      <c r="G822" s="61"/>
     </row>
     <row r="823">
-      <c r="G823" s="67"/>
+      <c r="G823" s="61"/>
     </row>
     <row r="824">
-      <c r="G824" s="67"/>
+      <c r="G824" s="61"/>
     </row>
     <row r="825">
-      <c r="G825" s="67"/>
+      <c r="G825" s="61"/>
     </row>
     <row r="826">
-      <c r="G826" s="67"/>
+      <c r="G826" s="61"/>
     </row>
     <row r="827">
-      <c r="G827" s="67"/>
+      <c r="G827" s="61"/>
     </row>
     <row r="828">
-      <c r="G828" s="67"/>
+      <c r="G828" s="61"/>
     </row>
     <row r="829">
-      <c r="G829" s="67"/>
+      <c r="G829" s="61"/>
     </row>
     <row r="830">
-      <c r="G830" s="67"/>
+      <c r="G830" s="61"/>
     </row>
     <row r="831">
-      <c r="G831" s="67"/>
+      <c r="G831" s="61"/>
     </row>
     <row r="832">
-      <c r="G832" s="67"/>
+      <c r="G832" s="61"/>
     </row>
     <row r="833">
-      <c r="G833" s="67"/>
+      <c r="G833" s="61"/>
     </row>
     <row r="834">
-      <c r="G834" s="67"/>
+      <c r="G834" s="61"/>
     </row>
     <row r="835">
-      <c r="G835" s="67"/>
+      <c r="G835" s="61"/>
     </row>
     <row r="836">
-      <c r="G836" s="67"/>
+      <c r="G836" s="61"/>
     </row>
     <row r="837">
-      <c r="G837" s="67"/>
+      <c r="G837" s="61"/>
     </row>
     <row r="838">
-      <c r="G838" s="67"/>
+      <c r="G838" s="61"/>
     </row>
     <row r="839">
-      <c r="G839" s="67"/>
+      <c r="G839" s="61"/>
     </row>
     <row r="840">
-      <c r="G840" s="67"/>
+      <c r="G840" s="61"/>
     </row>
     <row r="841">
-      <c r="G841" s="67"/>
+      <c r="G841" s="61"/>
     </row>
     <row r="842">
-      <c r="G842" s="67"/>
+      <c r="G842" s="61"/>
     </row>
     <row r="843">
-      <c r="G843" s="67"/>
+      <c r="G843" s="61"/>
     </row>
     <row r="844">
-      <c r="G844" s="67"/>
+      <c r="G844" s="61"/>
     </row>
     <row r="845">
-      <c r="G845" s="67"/>
+      <c r="G845" s="61"/>
     </row>
     <row r="846">
-      <c r="G846" s="67"/>
+      <c r="G846" s="61"/>
     </row>
     <row r="847">
-      <c r="G847" s="67"/>
+      <c r="G847" s="61"/>
     </row>
     <row r="848">
-      <c r="G848" s="67"/>
+      <c r="G848" s="61"/>
     </row>
     <row r="849">
-      <c r="G849" s="67"/>
+      <c r="G849" s="61"/>
     </row>
     <row r="850">
-      <c r="G850" s="67"/>
+      <c r="G850" s="61"/>
     </row>
     <row r="851">
-      <c r="G851" s="67"/>
+      <c r="G851" s="61"/>
     </row>
     <row r="852">
-      <c r="G852" s="67"/>
+      <c r="G852" s="61"/>
     </row>
     <row r="853">
-      <c r="G853" s="67"/>
+      <c r="G853" s="61"/>
     </row>
     <row r="854">
-      <c r="G854" s="67"/>
+      <c r="G854" s="61"/>
     </row>
     <row r="855">
-      <c r="G855" s="67"/>
+      <c r="G855" s="61"/>
     </row>
     <row r="856">
-      <c r="G856" s="67"/>
+      <c r="G856" s="61"/>
     </row>
     <row r="857">
-      <c r="G857" s="67"/>
+      <c r="G857" s="61"/>
     </row>
     <row r="858">
-      <c r="G858" s="67"/>
+      <c r="G858" s="61"/>
     </row>
     <row r="859">
-      <c r="G859" s="67"/>
+      <c r="G859" s="61"/>
     </row>
     <row r="860">
-      <c r="G860" s="67"/>
+      <c r="G860" s="61"/>
     </row>
     <row r="861">
-      <c r="G861" s="67"/>
+      <c r="G861" s="61"/>
     </row>
     <row r="862">
-      <c r="G862" s="67"/>
+      <c r="G862" s="61"/>
     </row>
     <row r="863">
-      <c r="G863" s="67"/>
+      <c r="G863" s="61"/>
     </row>
     <row r="864">
-      <c r="G864" s="67"/>
+      <c r="G864" s="61"/>
     </row>
     <row r="865">
-      <c r="G865" s="67"/>
+      <c r="G865" s="61"/>
     </row>
     <row r="866">
-      <c r="G866" s="67"/>
+      <c r="G866" s="61"/>
     </row>
     <row r="867">
-      <c r="G867" s="67"/>
+      <c r="G867" s="61"/>
     </row>
     <row r="868">
-      <c r="G868" s="67"/>
+      <c r="G868" s="61"/>
     </row>
     <row r="869">
-      <c r="G869" s="67"/>
+      <c r="G869" s="61"/>
     </row>
     <row r="870">
-      <c r="G870" s="67"/>
+      <c r="G870" s="61"/>
     </row>
     <row r="871">
-      <c r="G871" s="67"/>
+      <c r="G871" s="61"/>
     </row>
     <row r="872">
-      <c r="G872" s="67"/>
+      <c r="G872" s="61"/>
     </row>
     <row r="873">
-      <c r="G873" s="67"/>
+      <c r="G873" s="61"/>
     </row>
     <row r="874">
-      <c r="G874" s="67"/>
+      <c r="G874" s="61"/>
     </row>
     <row r="875">
-      <c r="G875" s="67"/>
+      <c r="G875" s="61"/>
     </row>
     <row r="876">
-      <c r="G876" s="67"/>
+      <c r="G876" s="61"/>
     </row>
     <row r="877">
-      <c r="G877" s="67"/>
+      <c r="G877" s="61"/>
     </row>
     <row r="878">
-      <c r="G878" s="67"/>
+      <c r="G878" s="61"/>
     </row>
     <row r="879">
-      <c r="G879" s="67"/>
+      <c r="G879" s="61"/>
     </row>
     <row r="880">
-      <c r="G880" s="67"/>
+      <c r="G880" s="61"/>
     </row>
     <row r="881">
-      <c r="G881" s="67"/>
+      <c r="G881" s="61"/>
     </row>
     <row r="882">
-      <c r="G882" s="67"/>
+      <c r="G882" s="61"/>
     </row>
     <row r="883">
-      <c r="G883" s="67"/>
+      <c r="G883" s="61"/>
     </row>
     <row r="884">
-      <c r="G884" s="67"/>
+      <c r="G884" s="61"/>
     </row>
     <row r="885">
-      <c r="G885" s="67"/>
+      <c r="G885" s="61"/>
     </row>
     <row r="886">
-      <c r="G886" s="67"/>
+      <c r="G886" s="61"/>
     </row>
     <row r="887">
-      <c r="G887" s="67"/>
+      <c r="G887" s="61"/>
     </row>
     <row r="888">
-      <c r="G888" s="67"/>
+      <c r="G888" s="61"/>
     </row>
     <row r="889">
-      <c r="G889" s="67"/>
+      <c r="G889" s="61"/>
     </row>
     <row r="890">
-      <c r="G890" s="67"/>
+      <c r="G890" s="61"/>
     </row>
     <row r="891">
-      <c r="G891" s="67"/>
+      <c r="G891" s="61"/>
     </row>
     <row r="892">
-      <c r="G892" s="67"/>
+      <c r="G892" s="61"/>
     </row>
     <row r="893">
-      <c r="G893" s="67"/>
+      <c r="G893" s="61"/>
     </row>
     <row r="894">
-      <c r="G894" s="67"/>
+      <c r="G894" s="61"/>
     </row>
     <row r="895">
-      <c r="G895" s="67"/>
+      <c r="G895" s="61"/>
     </row>
     <row r="896">
-      <c r="G896" s="67"/>
+      <c r="G896" s="61"/>
     </row>
     <row r="897">
-      <c r="G897" s="67"/>
+      <c r="G897" s="61"/>
     </row>
     <row r="898">
-      <c r="G898" s="67"/>
+      <c r="G898" s="61"/>
     </row>
     <row r="899">
-      <c r="G899" s="67"/>
+      <c r="G899" s="61"/>
     </row>
     <row r="900">
-      <c r="G900" s="67"/>
+      <c r="G900" s="61"/>
     </row>
     <row r="901">
-      <c r="G901" s="67"/>
+      <c r="G901" s="61"/>
     </row>
     <row r="902">
-      <c r="G902" s="67"/>
+      <c r="G902" s="61"/>
     </row>
     <row r="903">
-      <c r="G903" s="67"/>
+      <c r="G903" s="61"/>
     </row>
     <row r="904">
-      <c r="G904" s="67"/>
+      <c r="G904" s="61"/>
     </row>
     <row r="905">
-      <c r="G905" s="67"/>
+      <c r="G905" s="61"/>
     </row>
     <row r="906">
-      <c r="G906" s="67"/>
+      <c r="G906" s="61"/>
     </row>
     <row r="907">
-      <c r="G907" s="67"/>
+      <c r="G907" s="61"/>
     </row>
     <row r="908">
-      <c r="G908" s="67"/>
+      <c r="G908" s="61"/>
     </row>
     <row r="909">
-      <c r="G909" s="67"/>
+      <c r="G909" s="61"/>
     </row>
     <row r="910">
-      <c r="G910" s="67"/>
+      <c r="G910" s="61"/>
     </row>
     <row r="911">
-      <c r="G911" s="67"/>
+      <c r="G911" s="61"/>
     </row>
     <row r="912">
-      <c r="G912" s="67"/>
+      <c r="G912" s="61"/>
     </row>
     <row r="913">
-      <c r="G913" s="67"/>
+      <c r="G913" s="61"/>
     </row>
     <row r="914">
-      <c r="G914" s="67"/>
+      <c r="G914" s="61"/>
     </row>
     <row r="915">
-      <c r="G915" s="67"/>
+      <c r="G915" s="61"/>
     </row>
     <row r="916">
-      <c r="G916" s="67"/>
+      <c r="G916" s="61"/>
     </row>
     <row r="917">
-      <c r="G917" s="67"/>
+      <c r="G917" s="61"/>
     </row>
     <row r="918">
-      <c r="G918" s="67"/>
+      <c r="G918" s="61"/>
     </row>
     <row r="919">
-      <c r="G919" s="67"/>
+      <c r="G919" s="61"/>
     </row>
     <row r="920">
-      <c r="G920" s="67"/>
+      <c r="G920" s="61"/>
     </row>
     <row r="921">
-      <c r="G921" s="67"/>
+      <c r="G921" s="61"/>
     </row>
     <row r="922">
-      <c r="G922" s="67"/>
+      <c r="G922" s="61"/>
     </row>
     <row r="923">
-      <c r="G923" s="67"/>
+      <c r="G923" s="61"/>
     </row>
     <row r="924">
-      <c r="G924" s="67"/>
+      <c r="G924" s="61"/>
     </row>
     <row r="925">
-      <c r="G925" s="67"/>
+      <c r="G925" s="61"/>
     </row>
     <row r="926">
-      <c r="G926" s="67"/>
+      <c r="G926" s="61"/>
     </row>
     <row r="927">
-      <c r="G927" s="67"/>
+      <c r="G927" s="61"/>
     </row>
     <row r="928">
-      <c r="G928" s="67"/>
+      <c r="G928" s="61"/>
     </row>
     <row r="929">
-      <c r="G929" s="67"/>
+      <c r="G929" s="61"/>
     </row>
     <row r="930">
-      <c r="G930" s="67"/>
+      <c r="G930" s="61"/>
     </row>
     <row r="931">
-      <c r="G931" s="67"/>
+      <c r="G931" s="61"/>
     </row>
     <row r="932">
-      <c r="G932" s="67"/>
+      <c r="G932" s="61"/>
     </row>
     <row r="933">
-      <c r="G933" s="67"/>
+      <c r="G933" s="61"/>
     </row>
     <row r="934">
-      <c r="G934" s="67"/>
+      <c r="G934" s="61"/>
     </row>
     <row r="935">
-      <c r="G935" s="67"/>
+      <c r="G935" s="61"/>
     </row>
     <row r="936">
-      <c r="G936" s="67"/>
+      <c r="G936" s="61"/>
     </row>
     <row r="937">
-      <c r="G937" s="67"/>
+      <c r="G937" s="61"/>
     </row>
     <row r="938">
-      <c r="G938" s="67"/>
+      <c r="G938" s="61"/>
     </row>
     <row r="939">
-      <c r="G939" s="67"/>
+      <c r="G939" s="61"/>
     </row>
     <row r="940">
-      <c r="G940" s="67"/>
+      <c r="G940" s="61"/>
     </row>
     <row r="941">
-      <c r="G941" s="67"/>
+      <c r="G941" s="61"/>
     </row>
     <row r="942">
-      <c r="G942" s="67"/>
+      <c r="G942" s="61"/>
     </row>
     <row r="943">
-      <c r="G943" s="67"/>
+      <c r="G943" s="61"/>
     </row>
     <row r="944">
-      <c r="G944" s="67"/>
+      <c r="G944" s="61"/>
     </row>
     <row r="945">
-      <c r="G945" s="67"/>
+      <c r="G945" s="61"/>
     </row>
     <row r="946">
-      <c r="G946" s="67"/>
+      <c r="G946" s="61"/>
     </row>
     <row r="947">
-      <c r="G947" s="67"/>
+      <c r="G947" s="61"/>
     </row>
     <row r="948">
-      <c r="G948" s="67"/>
+      <c r="G948" s="61"/>
     </row>
     <row r="949">
-      <c r="G949" s="67"/>
+      <c r="G949" s="61"/>
     </row>
     <row r="950">
-      <c r="G950" s="67"/>
+      <c r="G950" s="61"/>
     </row>
     <row r="951">
-      <c r="G951" s="67"/>
+      <c r="G951" s="61"/>
     </row>
     <row r="952">
-      <c r="G952" s="67"/>
+      <c r="G952" s="61"/>
     </row>
     <row r="953">
-      <c r="G953" s="67"/>
+      <c r="G953" s="61"/>
     </row>
     <row r="954">
-      <c r="G954" s="67"/>
+      <c r="G954" s="61"/>
     </row>
     <row r="955">
-      <c r="G955" s="67"/>
+      <c r="G955" s="61"/>
     </row>
     <row r="956">
-      <c r="G956" s="67"/>
+      <c r="G956" s="61"/>
     </row>
     <row r="957">
-      <c r="G957" s="67"/>
+      <c r="G957" s="61"/>
     </row>
     <row r="958">
-      <c r="G958" s="67"/>
+      <c r="G958" s="61"/>
     </row>
     <row r="959">
-      <c r="G959" s="67"/>
+      <c r="G959" s="61"/>
     </row>
     <row r="960">
-      <c r="G960" s="67"/>
+      <c r="G960" s="61"/>
     </row>
     <row r="961">
-      <c r="G961" s="67"/>
+      <c r="G961" s="61"/>
     </row>
     <row r="962">
-      <c r="G962" s="67"/>
+      <c r="G962" s="61"/>
     </row>
     <row r="963">
-      <c r="G963" s="67"/>
+      <c r="G963" s="61"/>
     </row>
     <row r="964">
-      <c r="G964" s="67"/>
+      <c r="G964" s="61"/>
     </row>
     <row r="965">
-      <c r="G965" s="67"/>
+      <c r="G965" s="61"/>
     </row>
     <row r="966">
-      <c r="G966" s="67"/>
+      <c r="G966" s="61"/>
     </row>
     <row r="967">
-      <c r="G967" s="67"/>
+      <c r="G967" s="61"/>
     </row>
     <row r="968">
-      <c r="G968" s="67"/>
+      <c r="G968" s="61"/>
     </row>
     <row r="969">
-      <c r="G969" s="67"/>
+      <c r="G969" s="61"/>
     </row>
     <row r="970">
-      <c r="G970" s="67"/>
+      <c r="G970" s="61"/>
     </row>
     <row r="971">
-      <c r="G971" s="67"/>
+      <c r="G971" s="61"/>
     </row>
     <row r="972">
-      <c r="G972" s="67"/>
+      <c r="G972" s="61"/>
     </row>
     <row r="973">
-      <c r="G973" s="67"/>
+      <c r="G973" s="61"/>
     </row>
     <row r="974">
-      <c r="G974" s="67"/>
+      <c r="G974" s="61"/>
     </row>
     <row r="975">
-      <c r="G975" s="67"/>
+      <c r="G975" s="61"/>
     </row>
     <row r="976">
-      <c r="G976" s="67"/>
+      <c r="G976" s="61"/>
     </row>
     <row r="977">
-      <c r="G977" s="67"/>
+      <c r="G977" s="61"/>
     </row>
     <row r="978">
-      <c r="G978" s="67"/>
+      <c r="G978" s="61"/>
     </row>
     <row r="979">
-      <c r="G979" s="67"/>
+      <c r="G979" s="61"/>
     </row>
     <row r="980">
-      <c r="G980" s="67"/>
+      <c r="G980" s="61"/>
     </row>
     <row r="981">
-      <c r="G981" s="67"/>
+      <c r="G981" s="61"/>
     </row>
     <row r="982">
-      <c r="G982" s="67"/>
+      <c r="G982" s="61"/>
     </row>
     <row r="983">
-      <c r="G983" s="67"/>
+      <c r="G983" s="61"/>
     </row>
     <row r="984">
-      <c r="G984" s="67"/>
+      <c r="G984" s="61"/>
     </row>
     <row r="985">
-      <c r="G985" s="67"/>
+      <c r="G985" s="61"/>
     </row>
     <row r="986">
-      <c r="G986" s="67"/>
+      <c r="G986" s="61"/>
     </row>
     <row r="987">
-      <c r="G987" s="67"/>
+      <c r="G987" s="61"/>
     </row>
     <row r="988">
-      <c r="G988" s="67"/>
+      <c r="G988" s="61"/>
     </row>
     <row r="989">
-      <c r="G989" s="67"/>
+      <c r="G989" s="61"/>
     </row>
     <row r="990">
-      <c r="G990" s="67"/>
+      <c r="G990" s="61"/>
     </row>
     <row r="991">
-      <c r="G991" s="67"/>
+      <c r="G991" s="61"/>
     </row>
     <row r="992">
-      <c r="G992" s="67"/>
+      <c r="G992" s="61"/>
     </row>
     <row r="993">
-      <c r="G993" s="67"/>
+      <c r="G993" s="61"/>
     </row>
     <row r="994">
-      <c r="G994" s="67"/>
+      <c r="G994" s="61"/>
     </row>
     <row r="995">
-      <c r="G995" s="67"/>
+      <c r="G995" s="61"/>
     </row>
     <row r="996">
-      <c r="G996" s="67"/>
+      <c r="G996" s="61"/>
     </row>
     <row r="997">
-      <c r="G997" s="67"/>
+      <c r="G997" s="61"/>
     </row>
     <row r="998">
-      <c r="G998" s="67"/>
+      <c r="G998" s="61"/>
     </row>
     <row r="999">
-      <c r="G999" s="67"/>
+      <c r="G999" s="61"/>
     </row>
     <row r="1000">
-      <c r="G1000" s="67"/>
+      <c r="G1000" s="61"/>
     </row>
     <row r="1001">
-      <c r="G1001" s="67"/>
+      <c r="G1001" s="61"/>
     </row>
     <row r="1002">
-      <c r="G1002" s="67"/>
+      <c r="G1002" s="61"/>
     </row>
     <row r="1003">
-      <c r="G1003" s="67"/>
+      <c r="G1003" s="61"/>
     </row>
     <row r="1004">
-      <c r="G1004" s="67"/>
+      <c r="G1004" s="61"/>
     </row>
     <row r="1005">
-      <c r="G1005" s="67"/>
+      <c r="G1005" s="61"/>
     </row>
     <row r="1006">
-      <c r="G1006" s="67"/>
+      <c r="G1006" s="61"/>
     </row>
     <row r="1007">
-      <c r="G1007" s="67"/>
+      <c r="G1007" s="61"/>
     </row>
     <row r="1008">
-      <c r="G1008" s="67"/>
+      <c r="G1008" s="61"/>
     </row>
     <row r="1009">
-      <c r="G1009" s="67"/>
+      <c r="G1009" s="61"/>
     </row>
     <row r="1010">
-      <c r="G1010" s="67"/>
+      <c r="G1010" s="61"/>
     </row>
     <row r="1011">
-      <c r="G1011" s="67"/>
+      <c r="G1011" s="61"/>
     </row>
     <row r="1012">
-      <c r="G1012" s="67"/>
+      <c r="G1012" s="61"/>
     </row>
     <row r="1013">
-      <c r="G1013" s="67"/>
+      <c r="G1013" s="61"/>
     </row>
     <row r="1014">
-      <c r="G1014" s="67"/>
+      <c r="G1014" s="61"/>
     </row>
     <row r="1015">
-      <c r="G1015" s="67"/>
+      <c r="G1015" s="61"/>
     </row>
     <row r="1016">
-      <c r="G1016" s="67"/>
+      <c r="G1016" s="61"/>
     </row>
     <row r="1017">
-      <c r="G1017" s="67"/>
+      <c r="G1017" s="61"/>
     </row>
     <row r="1018">
-      <c r="G1018" s="67"/>
+      <c r="G1018" s="61"/>
     </row>
     <row r="1019">
-      <c r="G1019" s="67"/>
+      <c r="G1019" s="61"/>
     </row>
     <row r="1020">
-      <c r="G1020" s="67"/>
+      <c r="G1020" s="61"/>
     </row>
     <row r="1021">
-      <c r="G1021" s="67"/>
+      <c r="G1021" s="61"/>
     </row>
     <row r="1022">
-      <c r="G1022" s="67"/>
+      <c r="G1022" s="61"/>
     </row>
     <row r="1023">
-      <c r="G1023" s="67"/>
+      <c r="G1023" s="61"/>
     </row>
     <row r="1024">
-      <c r="G1024" s="67"/>
+      <c r="G1024" s="61"/>
     </row>
     <row r="1025">
-      <c r="G1025" s="67"/>
+      <c r="G1025" s="61"/>
     </row>
     <row r="1026">
-      <c r="G1026" s="67"/>
+      <c r="G1026" s="61"/>
     </row>
     <row r="1027">
-      <c r="G1027" s="67"/>
+      <c r="G1027" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -9831,7 +9833,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -9842,138 +9844,961 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="28.5"/>
-    <col customWidth="1" min="2" max="2" width="31.88"/>
+    <col customWidth="1" min="2" max="2" width="34.5"/>
     <col customWidth="1" min="3" max="3" width="59.63"/>
   </cols>
   <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C2" s="62" t="s">
+        <v>286</v>
+      </c>
+    </row>
     <row r="3">
-      <c r="A3" s="68"/>
-      <c r="B3" s="69" t="s">
+      <c r="A3" s="63"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="65"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="63"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="65"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="63"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="65"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="63"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="65"/>
+      <c r="B7" s="64" t="s">
+        <v>287</v>
+      </c>
+      <c r="C7" s="62" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="65"/>
+      <c r="B8" s="64" t="s">
+        <v>288</v>
+      </c>
+      <c r="C8" s="62" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="65"/>
+      <c r="B9" s="64" t="s">
+        <v>290</v>
+      </c>
+      <c r="C9" s="62" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="65"/>
+      <c r="B10" s="64" t="s">
+        <v>292</v>
+      </c>
+      <c r="C10" s="62" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="65"/>
+      <c r="B11" s="64" t="s">
+        <v>294</v>
+      </c>
+      <c r="C11" s="62" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="65"/>
+      <c r="B12" s="64" t="s">
+        <v>296</v>
+      </c>
+      <c r="C12" s="62" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="65"/>
+      <c r="B13" s="64" t="s">
+        <v>298</v>
+      </c>
+      <c r="C13" s="62" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="65"/>
+      <c r="B14" s="64" t="s">
+        <v>300</v>
+      </c>
+      <c r="C14" s="62" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="65"/>
+      <c r="B15" s="64" t="s">
         <v>302</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="C15" s="62" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="70" t="s">
+    <row r="17">
+      <c r="A17" s="66" t="s">
         <v>304</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="B17" s="67"/>
+      <c r="C17" s="68"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="66"/>
+      <c r="B18" s="67" t="s">
         <v>305</v>
       </c>
-      <c r="C4" s="72"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="57"/>
-      <c r="B5" s="71" t="s">
+      <c r="C18" s="69" t="s">
         <v>306</v>
       </c>
-      <c r="C5" s="72"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="57"/>
-      <c r="B6" s="71" t="s">
+    </row>
+    <row r="19">
+      <c r="A19" s="3"/>
+      <c r="B19" s="67" t="s">
         <v>307</v>
       </c>
-      <c r="C6" s="72"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="57"/>
-      <c r="B7" s="71" t="s">
+      <c r="C19" s="69" t="s">
         <v>308</v>
       </c>
-      <c r="C7" s="73" t="s">
+    </row>
+    <row r="20">
+      <c r="B20" s="67" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="57"/>
-      <c r="B8" s="71" t="s">
+      <c r="C20" s="69" t="s">
         <v>310</v>
       </c>
-      <c r="C8" s="73" t="s">
+      <c r="D20" s="67" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="57"/>
-      <c r="B9" s="71" t="s">
+    <row r="21">
+      <c r="B21" s="67" t="s">
         <v>312</v>
       </c>
-      <c r="C9" s="73" t="s">
+      <c r="C21" s="69" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="57"/>
-      <c r="B10" s="71" t="s">
+    <row r="22">
+      <c r="B22" s="67" t="s">
         <v>314</v>
       </c>
-      <c r="C10" s="73" t="s">
+      <c r="C22" s="69" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="57"/>
-      <c r="B11" s="71" t="s">
+    <row r="23">
+      <c r="B23" s="67" t="s">
         <v>316</v>
       </c>
-      <c r="C11" s="73" t="s">
+      <c r="C23" s="69" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="57"/>
-      <c r="B12" s="71" t="s">
+    <row r="26">
+      <c r="A26" s="70" t="s">
         <v>318</v>
       </c>
-      <c r="C12" s="73" t="s">
+    </row>
+    <row r="27">
+      <c r="A27" s="71" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="72" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="57"/>
-      <c r="B13" s="71" t="s">
+      <c r="C27" s="73"/>
+      <c r="D27" s="74" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="75" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="72" t="s">
         <v>320</v>
       </c>
-      <c r="C13" s="73" t="s">
+      <c r="C28" s="73"/>
+      <c r="D28" s="74" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="76"/>
+      <c r="B29" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="73"/>
+      <c r="D29" s="74" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="76"/>
+      <c r="B30" s="72" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="73"/>
+      <c r="D30" s="74" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="76"/>
+      <c r="B31" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="78" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="79" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="57"/>
-      <c r="B14" s="71" t="s">
+    <row r="32">
+      <c r="A32" s="76"/>
+      <c r="B32" s="80"/>
+      <c r="C32" s="81" t="s">
         <v>322</v>
       </c>
-      <c r="C14" s="73" t="s">
+      <c r="D32" s="81" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="76"/>
+      <c r="B33" s="75" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="71" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="60"/>
-      <c r="B15" s="71" t="s">
+      <c r="D33" s="77" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="76"/>
+      <c r="B34" s="76"/>
+      <c r="C34" s="74" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="73"/>
+      <c r="B35" s="73"/>
+      <c r="C35" s="74" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="75" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" s="75" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="71" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" s="74" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="76"/>
+      <c r="B37" s="73"/>
+      <c r="C37" s="71" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" s="74" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="76"/>
+      <c r="B38" s="72" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="73"/>
+      <c r="D38" s="74" t="s">
         <v>324</v>
       </c>
-      <c r="C15" s="73" t="s">
+    </row>
+    <row r="39">
+      <c r="A39" s="76"/>
+      <c r="B39" s="72" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="73"/>
+      <c r="D39" s="74" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="76"/>
+      <c r="B40" s="75" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="D40" s="74" t="s">
         <v>325</v>
       </c>
     </row>
+    <row r="41">
+      <c r="A41" s="76"/>
+      <c r="B41" s="73"/>
+      <c r="C41" s="74" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="76"/>
+      <c r="B42" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42" s="73"/>
+      <c r="D42" s="74" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="73"/>
+      <c r="B43" s="72" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" s="73"/>
+      <c r="D43" s="74" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="75" t="s">
+        <v>327</v>
+      </c>
+      <c r="B44" s="75" t="s">
+        <v>149</v>
+      </c>
+      <c r="C44" s="71" t="s">
+        <v>150</v>
+      </c>
+      <c r="D44" s="74" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="76"/>
+      <c r="B45" s="76"/>
+      <c r="C45" s="71" t="s">
+        <v>154</v>
+      </c>
+      <c r="D45" s="74" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="76"/>
+      <c r="B46" s="73"/>
+      <c r="C46" s="71" t="s">
+        <v>328</v>
+      </c>
+      <c r="D46" s="74" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="76"/>
+      <c r="B47" s="75" t="s">
+        <v>140</v>
+      </c>
+      <c r="C47" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="D47" s="74" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="73"/>
+      <c r="B48" s="73"/>
+      <c r="C48" s="71" t="s">
+        <v>331</v>
+      </c>
+      <c r="D48" s="74" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="71" t="s">
+        <v>332</v>
+      </c>
+      <c r="B49" s="72" t="s">
+        <v>333</v>
+      </c>
+      <c r="C49" s="73"/>
+      <c r="D49" s="74" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="75" t="s">
+        <v>166</v>
+      </c>
+      <c r="B50" s="75" t="s">
+        <v>167</v>
+      </c>
+      <c r="C50" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="D50" s="74" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="76"/>
+      <c r="B51" s="76"/>
+      <c r="C51" s="71" t="s">
+        <v>172</v>
+      </c>
+      <c r="D51" s="74" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="76"/>
+      <c r="B52" s="73"/>
+      <c r="C52" s="71" t="s">
+        <v>174</v>
+      </c>
+      <c r="D52" s="74" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="76"/>
+      <c r="B53" s="75" t="s">
+        <v>176</v>
+      </c>
+      <c r="C53" s="71" t="s">
+        <v>177</v>
+      </c>
+      <c r="D53" s="74" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="76"/>
+      <c r="B54" s="76"/>
+      <c r="C54" s="71" t="s">
+        <v>335</v>
+      </c>
+      <c r="D54" s="74" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="76"/>
+      <c r="B55" s="73"/>
+      <c r="C55" s="71" t="s">
+        <v>337</v>
+      </c>
+      <c r="D55" s="74" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="76"/>
+      <c r="B56" s="75" t="s">
+        <v>195</v>
+      </c>
+      <c r="C56" s="71" t="s">
+        <v>339</v>
+      </c>
+      <c r="D56" s="74" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="76"/>
+      <c r="B57" s="73"/>
+      <c r="C57" s="74" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="73"/>
+      <c r="B58" s="72" t="s">
+        <v>205</v>
+      </c>
+      <c r="C58" s="73"/>
+      <c r="D58" s="74" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="75" t="s">
+        <v>211</v>
+      </c>
+      <c r="B59" s="72" t="s">
+        <v>212</v>
+      </c>
+      <c r="C59" s="73"/>
+      <c r="D59" s="74" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="76"/>
+      <c r="B60" s="72" t="s">
+        <v>218</v>
+      </c>
+      <c r="C60" s="73"/>
+      <c r="D60" s="74" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="76"/>
+      <c r="B61" s="72" t="s">
+        <v>343</v>
+      </c>
+      <c r="C61" s="73"/>
+      <c r="D61" s="74" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="76"/>
+      <c r="B62" s="72" t="s">
+        <v>231</v>
+      </c>
+      <c r="C62" s="73"/>
+      <c r="D62" s="74" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="76"/>
+      <c r="B63" s="72" t="s">
+        <v>236</v>
+      </c>
+      <c r="C63" s="73"/>
+      <c r="D63" s="74" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="76"/>
+      <c r="B64" s="72" t="s">
+        <v>243</v>
+      </c>
+      <c r="C64" s="73"/>
+      <c r="D64" s="74" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="76"/>
+      <c r="B65" s="72" t="s">
+        <v>250</v>
+      </c>
+      <c r="C65" s="73"/>
+      <c r="D65" s="74" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="76"/>
+      <c r="B66" s="72" t="s">
+        <v>256</v>
+      </c>
+      <c r="C66" s="73"/>
+      <c r="D66" s="74" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="76"/>
+      <c r="B67" s="72" t="s">
+        <v>263</v>
+      </c>
+      <c r="C67" s="73"/>
+      <c r="D67" s="74" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="76"/>
+      <c r="B68" s="72" t="s">
+        <v>269</v>
+      </c>
+      <c r="C68" s="73"/>
+      <c r="D68" s="74" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="76"/>
+      <c r="B69" s="72" t="s">
+        <v>275</v>
+      </c>
+      <c r="C69" s="73"/>
+      <c r="D69" s="74" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="73"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="70" t="s">
+        <v>346</v>
+      </c>
+      <c r="B72" s="67" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="67"/>
+      <c r="B73" s="69" t="s">
+        <v>348</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A4:A15"/>
+  <mergeCells count="38">
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="A50:A58"/>
+    <mergeCell ref="A59:A70"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C7"/>
-    <hyperlink r:id="rId2" ref="C8"/>
-    <hyperlink r:id="rId3" ref="C9"/>
-    <hyperlink r:id="rId4" ref="C10"/>
-    <hyperlink r:id="rId5" ref="C11"/>
-    <hyperlink r:id="rId6" ref="C12"/>
-    <hyperlink r:id="rId7" ref="C13"/>
-    <hyperlink r:id="rId8" ref="C14"/>
-    <hyperlink r:id="rId9" ref="C15"/>
+    <hyperlink r:id="rId1" ref="C2"/>
+    <hyperlink r:id="rId2" ref="C7"/>
+    <hyperlink r:id="rId3" ref="C8"/>
+    <hyperlink r:id="rId4" ref="C9"/>
+    <hyperlink r:id="rId5" ref="C10"/>
+    <hyperlink r:id="rId6" ref="C11"/>
+    <hyperlink r:id="rId7" ref="C12"/>
+    <hyperlink r:id="rId8" ref="C13"/>
+    <hyperlink r:id="rId9" ref="C14"/>
+    <hyperlink r:id="rId10" ref="C15"/>
+    <hyperlink r:id="rId11" ref="C18"/>
+    <hyperlink r:id="rId12" ref="C19"/>
+    <hyperlink r:id="rId13" ref="C20"/>
+    <hyperlink r:id="rId14" ref="C21"/>
+    <hyperlink r:id="rId15" ref="C22"/>
+    <hyperlink r:id="rId16" ref="C23"/>
+    <hyperlink r:id="rId17" ref="B73"/>
   </hyperlinks>
-  <drawing r:id="rId10"/>
+  <drawing r:id="rId18"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="27" t="s">
+        <v>349</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="28"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="34" t="s">
+        <v>350</v>
+      </c>
+      <c r="B4" s="35"/>
+      <c r="C4" s="82" t="s">
+        <v>351</v>
+      </c>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="83" t="s">
+        <v>352</v>
+      </c>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="84" t="s">
+        <v>353</v>
+      </c>
+      <c r="M4" s="35"/>
+    </row>
+    <row r="5">
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
+    </row>
+    <row r="6">
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="85"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="34" t="s">
+        <v>354</v>
+      </c>
+      <c r="B7" s="35"/>
+      <c r="C7" s="82" t="s">
+        <v>355</v>
+      </c>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="86" t="s">
+        <v>356</v>
+      </c>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="87" t="s">
+        <v>357</v>
+      </c>
+      <c r="M7" s="35"/>
+    </row>
+    <row r="8">
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="85"/>
+    </row>
+    <row r="9">
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="85"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="34" t="s">
+        <v>358</v>
+      </c>
+      <c r="B10" s="35"/>
+      <c r="C10" s="82" t="s">
+        <v>359</v>
+      </c>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="86" t="s">
+        <v>360</v>
+      </c>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="87" t="s">
+        <v>361</v>
+      </c>
+      <c r="M10" s="35"/>
+    </row>
+    <row r="11">
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="85"/>
+    </row>
+    <row r="12">
+      <c r="G12" s="85"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="85"/>
+      <c r="L12" s="85"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="34" t="s">
+        <v>362</v>
+      </c>
+      <c r="B13" s="35"/>
+      <c r="C13" s="82" t="s">
+        <v>363</v>
+      </c>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="86" t="s">
+        <v>364</v>
+      </c>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="88" t="s">
+        <v>365</v>
+      </c>
+      <c r="M13" s="35"/>
+    </row>
+    <row r="14">
+      <c r="G14" s="85"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="85"/>
+    </row>
+    <row r="15">
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="85"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="34" t="s">
+        <v>366</v>
+      </c>
+      <c r="B16" s="35"/>
+      <c r="C16" s="82" t="s">
+        <v>367</v>
+      </c>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="86" t="s">
+        <v>368</v>
+      </c>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="88" t="s">
+        <v>369</v>
+      </c>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G10:K10"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="C4"/>
+    <hyperlink r:id="rId2" ref="C7"/>
+    <hyperlink r:id="rId3" ref="C10"/>
+    <hyperlink r:id="rId4" ref="C13"/>
+    <hyperlink r:id="rId5" ref="C16"/>
+  </hyperlinks>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>